--- a/JupyterNotebooks/AvgHW/GossF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.000754379497787</v>
+      </c>
+      <c r="D3">
         <v>0.9999407838510856</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>1.003182513720308</v>
+      </c>
+      <c r="F3">
+        <v>0.9982234467238364</v>
+      </c>
+      <c r="G3">
+        <v>0.9999407838510856</v>
+      </c>
+      <c r="H3">
         <v>0.9973134401553432</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>1.001089191760224</v>
-      </c>
-      <c r="F3">
-        <v>0.9999407838510856</v>
-      </c>
-      <c r="G3">
-        <v>1.003182513720308</v>
-      </c>
-      <c r="H3">
-        <v>0.9982234467238364</v>
-      </c>
-      <c r="I3">
-        <v>1.000754379497787</v>
       </c>
       <c r="J3">
         <v>0.9973134401553432</v>
@@ -728,7 +680,7 @@
         <v>1.000083959284764</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.001455272443113</v>
+      </c>
+      <c r="D4">
         <v>0.9998626105243392</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>1.006166108757411</v>
+      </c>
+      <c r="F4">
+        <v>0.9965714064400493</v>
+      </c>
+      <c r="G4">
+        <v>0.9998626105243392</v>
+      </c>
+      <c r="H4">
         <v>0.9948234880996217</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>1.002110686467543</v>
-      </c>
-      <c r="F4">
-        <v>0.9998626105243392</v>
-      </c>
-      <c r="G4">
-        <v>1.006166108757411</v>
-      </c>
-      <c r="H4">
-        <v>0.9965714064400493</v>
-      </c>
-      <c r="I4">
-        <v>1.001455272443113</v>
       </c>
       <c r="J4">
         <v>0.9948234880996217</v>
@@ -790,7 +742,7 @@
         <v>1.00016492878868</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.002802328405436</v>
+      </c>
+      <c r="D5">
         <v>0.9999506472500291</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1.011588130794782</v>
+      </c>
+      <c r="F5">
+        <v>0.993421824569349</v>
+      </c>
+      <c r="G5">
+        <v>0.9999506472500291</v>
+      </c>
+      <c r="H5">
         <v>0.9899564656723986</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>1.003975844578955</v>
-      </c>
-      <c r="F5">
-        <v>0.9999506472500291</v>
-      </c>
-      <c r="G5">
-        <v>1.011588130794782</v>
-      </c>
-      <c r="H5">
-        <v>0.993421824569349</v>
-      </c>
-      <c r="I5">
-        <v>1.002802328405436</v>
       </c>
       <c r="J5">
         <v>0.9899564656723986</v>
@@ -852,7 +804,7 @@
         <v>1.000282540211825</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.004116964224563</v>
+      </c>
+      <c r="D6">
         <v>1.000029305994281</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.016884936926356</v>
+      </c>
+      <c r="F6">
+        <v>0.9903484604050866</v>
+      </c>
+      <c r="G6">
+        <v>1.000029305994281</v>
+      </c>
+      <c r="H6">
         <v>0.9852068918964512</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>1.005799116906693</v>
-      </c>
-      <c r="F6">
-        <v>1.000029305994281</v>
-      </c>
-      <c r="G6">
-        <v>1.016884936926356</v>
-      </c>
-      <c r="H6">
-        <v>0.9903484604050866</v>
-      </c>
-      <c r="I6">
-        <v>1.004116964224563</v>
       </c>
       <c r="J6">
         <v>0.9852068918964512</v>
@@ -914,7 +866,7 @@
         <v>1.000397612725572</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,49 +874,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000097256621646</v>
+        <v>1.000028664589867</v>
       </c>
       <c r="D7">
-        <v>0.9998628130148679</v>
+        <v>1.000097256621645</v>
       </c>
       <c r="E7">
+        <v>0.999988484372741</v>
+      </c>
+      <c r="F7">
+        <v>0.9999437309581196</v>
+      </c>
+      <c r="G7">
+        <v>1.000097256621645</v>
+      </c>
+      <c r="H7">
+        <v>0.9998628130148677</v>
+      </c>
+      <c r="I7">
         <v>1.000000438172581</v>
       </c>
-      <c r="F7">
-        <v>1.000097256621646</v>
-      </c>
-      <c r="G7">
-        <v>0.9999884843727408</v>
-      </c>
-      <c r="H7">
-        <v>0.9999437309581192</v>
-      </c>
-      <c r="I7">
-        <v>1.000028664589867</v>
-      </c>
       <c r="J7">
-        <v>0.9998628130148679</v>
+        <v>0.9998628130148677</v>
       </c>
       <c r="K7">
-        <v>1.000097256621646</v>
+        <v>1.000097256621645</v>
       </c>
       <c r="L7">
         <v>1.000000438172581</v>
       </c>
       <c r="M7">
-        <v>0.9999316255937246</v>
+        <v>0.9999316255937244</v>
       </c>
       <c r="N7">
-        <v>0.9999316255937246</v>
+        <v>0.9999316255937244</v>
       </c>
       <c r="O7">
         <v>0.9999356607151895</v>
       </c>
       <c r="P7">
-        <v>0.9999868359363649</v>
+        <v>0.9999868359363647</v>
       </c>
       <c r="Q7">
-        <v>0.9999868359363649</v>
+        <v>0.9999868359363647</v>
       </c>
       <c r="R7">
         <v>1.000014441107685</v>
@@ -976,7 +928,7 @@
         <v>0.9999868979549703</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.000018599871541</v>
+      </c>
+      <c r="D8">
         <v>1.000172325160165</v>
       </c>
-      <c r="D8">
-        <v>0.9998763468240668</v>
-      </c>
       <c r="E8">
+        <v>0.9998549405956716</v>
+      </c>
+      <c r="F8">
+        <v>0.9999736050777578</v>
+      </c>
+      <c r="G8">
+        <v>1.000172325160165</v>
+      </c>
+      <c r="H8">
+        <v>0.9998763468240673</v>
+      </c>
+      <c r="I8">
         <v>0.9999553389915542</v>
       </c>
-      <c r="F8">
-        <v>1.000172325160165</v>
-      </c>
-      <c r="G8">
-        <v>0.9998549405956717</v>
-      </c>
-      <c r="H8">
-        <v>0.9999736050777573</v>
-      </c>
-      <c r="I8">
-        <v>1.000018599871541</v>
-      </c>
       <c r="J8">
-        <v>0.9998763468240668</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="K8">
         <v>1.000172325160165</v>
@@ -1014,13 +966,13 @@
         <v>0.9999553389915542</v>
       </c>
       <c r="M8">
-        <v>0.9999158429078105</v>
+        <v>0.9999158429078108</v>
       </c>
       <c r="N8">
-        <v>0.9999158429078105</v>
+        <v>0.9999158429078108</v>
       </c>
       <c r="O8">
-        <v>0.9999350969644595</v>
+        <v>0.9999350969644598</v>
       </c>
       <c r="P8">
         <v>1.000001336991929</v>
@@ -1035,10 +987,10 @@
         <v>1.000044084033988</v>
       </c>
       <c r="T8">
-        <v>0.9999751927534594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999751927534595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9999260370378639</v>
+      </c>
+      <c r="D9">
         <v>1.000092017773682</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0.9995987428932059</v>
+      </c>
+      <c r="F9">
+        <v>1.000176647688572</v>
+      </c>
+      <c r="G9">
+        <v>1.000092017773682</v>
+      </c>
+      <c r="H9">
         <v>1.000245746394825</v>
       </c>
-      <c r="E9">
+      <c r="I9">
         <v>0.9998577339844977</v>
-      </c>
-      <c r="F9">
-        <v>1.000092017773682</v>
-      </c>
-      <c r="G9">
-        <v>0.9995987428932059</v>
-      </c>
-      <c r="H9">
-        <v>1.000176647688572</v>
-      </c>
-      <c r="I9">
-        <v>0.9999260370378639</v>
       </c>
       <c r="J9">
         <v>1.000245746394825</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999828209621078</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9999321680097619</v>
+      </c>
+      <c r="D10">
         <v>1.000349468785367</v>
       </c>
-      <c r="D10">
-        <v>1.000140988502879</v>
-      </c>
       <c r="E10">
+        <v>0.9992974170295222</v>
+      </c>
+      <c r="F10">
+        <v>1.000186746078138</v>
+      </c>
+      <c r="G10">
+        <v>1.000349468785367</v>
+      </c>
+      <c r="H10">
+        <v>1.00014098850288</v>
+      </c>
+      <c r="I10">
         <v>0.9997604394699503</v>
       </c>
-      <c r="F10">
-        <v>1.000349468785367</v>
-      </c>
-      <c r="G10">
-        <v>0.999297417029522</v>
-      </c>
-      <c r="H10">
-        <v>1.000186746078138</v>
-      </c>
-      <c r="I10">
-        <v>0.9999321680097619</v>
-      </c>
       <c r="J10">
-        <v>1.000140988502879</v>
+        <v>1.00014098850288</v>
       </c>
       <c r="K10">
         <v>1.000349468785367</v>
@@ -1138,10 +1090,10 @@
         <v>0.9997604394699503</v>
       </c>
       <c r="M10">
-        <v>0.9999507139864148</v>
+        <v>0.999950713986415</v>
       </c>
       <c r="N10">
-        <v>0.9999507139864148</v>
+        <v>0.999950713986415</v>
       </c>
       <c r="O10">
         <v>1.000029391350323</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999445379792699</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9996584310695216</v>
+      </c>
+      <c r="D11">
         <v>1.000230600643486</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>0.9983957496122602</v>
+      </c>
+      <c r="F11">
+        <v>1.000796652139727</v>
+      </c>
+      <c r="G11">
+        <v>1.000230600643486</v>
+      </c>
+      <c r="H11">
         <v>1.001198526200765</v>
       </c>
-      <c r="E11">
+      <c r="I11">
         <v>0.9994229713965666</v>
-      </c>
-      <c r="F11">
-        <v>1.000230600643486</v>
-      </c>
-      <c r="G11">
-        <v>0.9983957496122602</v>
-      </c>
-      <c r="H11">
-        <v>1.000796652139727</v>
-      </c>
-      <c r="I11">
-        <v>0.9996584310695216</v>
       </c>
       <c r="J11">
         <v>1.001198526200765</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999504885103878</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.001359776493563</v>
+      </c>
+      <c r="D12">
         <v>0.9985390216161666</v>
       </c>
-      <c r="D12">
+      <c r="E12">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="F12">
+        <v>0.9970636620381401</v>
+      </c>
+      <c r="G12">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="H12">
         <v>0.9948998809505066</v>
       </c>
-      <c r="E12">
+      <c r="I12">
         <v>1.002520573470641</v>
-      </c>
-      <c r="F12">
-        <v>0.9985390216161666</v>
-      </c>
-      <c r="G12">
-        <v>1.006068376289979</v>
-      </c>
-      <c r="H12">
-        <v>0.9970636620381402</v>
-      </c>
-      <c r="I12">
-        <v>1.001359776493563</v>
       </c>
       <c r="J12">
         <v>0.9948998809505066</v>
@@ -1286,7 +1238,7 @@
         <v>1.000075215143166</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,25 +1246,25 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.000325035774882</v>
+      </c>
+      <c r="D13">
         <v>1.002150129736611</v>
       </c>
-      <c r="D13">
+      <c r="E13">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="F13">
+        <v>0.9990153688385858</v>
+      </c>
+      <c r="G13">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="H13">
         <v>0.9988911172967686</v>
       </c>
-      <c r="E13">
+      <c r="I13">
         <v>0.9995739654508983</v>
-      </c>
-      <c r="F13">
-        <v>1.002150129736611</v>
-      </c>
-      <c r="G13">
-        <v>1.000107663060356</v>
-      </c>
-      <c r="H13">
-        <v>0.9990153688385859</v>
-      </c>
-      <c r="I13">
-        <v>1.000325035774882</v>
       </c>
       <c r="J13">
         <v>0.9988911172967686</v>
@@ -1348,7 +1300,7 @@
         <v>1.000010546693017</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,25 +1308,25 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.8645977896334297</v>
+      </c>
+      <c r="D14">
         <v>0.8489902940146983</v>
       </c>
-      <c r="D14">
+      <c r="E14">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="F14">
+        <v>1.295572467635066</v>
+      </c>
+      <c r="G14">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="H14">
         <v>1.548079765550479</v>
       </c>
-      <c r="E14">
+      <c r="I14">
         <v>0.8710206287832202</v>
-      </c>
-      <c r="F14">
-        <v>0.8489902940146983</v>
-      </c>
-      <c r="G14">
-        <v>0.6616320149711334</v>
-      </c>
-      <c r="H14">
-        <v>1.295572467635066</v>
-      </c>
-      <c r="I14">
-        <v>0.8645977896334297</v>
       </c>
       <c r="J14">
         <v>1.548079765550479</v>
@@ -1410,7 +1362,7 @@
         <v>1.014982160098004</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9648906036752073</v>
+      </c>
+      <c r="D15">
         <v>0.9711561553077607</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="F15">
+        <v>1.078493950850909</v>
+      </c>
+      <c r="G15">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="H15">
         <v>1.137269315054173</v>
       </c>
-      <c r="E15">
+      <c r="I15">
         <v>0.9623121884336756</v>
-      </c>
-      <c r="F15">
-        <v>0.9711561553077607</v>
-      </c>
-      <c r="G15">
-        <v>0.8961192061560384</v>
-      </c>
-      <c r="H15">
-        <v>1.078493950850909</v>
-      </c>
-      <c r="I15">
-        <v>0.9648906036752073</v>
       </c>
       <c r="J15">
         <v>1.137269315054173</v>
@@ -1472,7 +1424,7 @@
         <v>1.001706903246294</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000237125500707</v>
+        <v>1.014859137939484</v>
       </c>
       <c r="D16">
-        <v>0.9998332418998492</v>
+        <v>1.001055077117654</v>
       </c>
       <c r="E16">
-        <v>0.9999310172538315</v>
+        <v>1.059500844705148</v>
       </c>
       <c r="F16">
-        <v>1.000237125500707</v>
+        <v>0.9653229860953876</v>
       </c>
       <c r="G16">
-        <v>0.9997469584095989</v>
+        <v>1.001055077117654</v>
       </c>
       <c r="H16">
-        <v>0.9999851609839436</v>
+        <v>0.9461843958926811</v>
       </c>
       <c r="I16">
-        <v>1.000020260893065</v>
+        <v>1.020539806253167</v>
       </c>
       <c r="J16">
-        <v>0.9998332418998492</v>
+        <v>0.9461843958926811</v>
       </c>
       <c r="K16">
-        <v>1.000237125500707</v>
+        <v>1.001055077117654</v>
       </c>
       <c r="L16">
-        <v>0.9999310172538315</v>
+        <v>1.020539806253167</v>
       </c>
       <c r="M16">
-        <v>0.9998821295768403</v>
+        <v>0.9833621010729243</v>
       </c>
       <c r="N16">
-        <v>0.9998821295768403</v>
+        <v>0.9833621010729243</v>
       </c>
       <c r="O16">
-        <v>0.9999164733792081</v>
+        <v>0.9773490627470788</v>
       </c>
       <c r="P16">
-        <v>1.000000461551463</v>
+        <v>0.9892597597545011</v>
       </c>
       <c r="Q16">
-        <v>1.000000461551463</v>
+        <v>0.9892597597545011</v>
       </c>
       <c r="R16">
-        <v>1.000059627538774</v>
+        <v>0.9922085890952894</v>
       </c>
       <c r="S16">
-        <v>1.000059627538774</v>
+        <v>0.9922085890952894</v>
       </c>
       <c r="T16">
-        <v>0.9999589608234992</v>
+        <v>1.001243708000587</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998593098681134</v>
+        <v>1.012412946523407</v>
       </c>
       <c r="D17">
-        <v>0.9998622518457062</v>
+        <v>1.005481085326495</v>
       </c>
       <c r="E17">
-        <v>1.000135822963761</v>
+        <v>1.043370074782434</v>
       </c>
       <c r="F17">
-        <v>0.9998593098681134</v>
+        <v>0.9716118351944067</v>
       </c>
       <c r="G17">
-        <v>1.000435916883597</v>
+        <v>1.005481085326495</v>
       </c>
       <c r="H17">
-        <v>0.9998484609213367</v>
+        <v>0.953314685463902</v>
       </c>
       <c r="I17">
-        <v>1.000055206580793</v>
+        <v>1.015265554127479</v>
       </c>
       <c r="J17">
-        <v>0.9998622518457062</v>
+        <v>0.953314685463902</v>
       </c>
       <c r="K17">
-        <v>0.9998593098681134</v>
+        <v>1.005481085326495</v>
       </c>
       <c r="L17">
-        <v>1.000135822963761</v>
+        <v>1.015265554127479</v>
       </c>
       <c r="M17">
-        <v>0.9999990374047338</v>
+        <v>0.9842901197956904</v>
       </c>
       <c r="N17">
-        <v>0.9999990374047338</v>
+        <v>0.9842901197956904</v>
       </c>
       <c r="O17">
-        <v>0.9999488452436015</v>
+        <v>0.9800640249285958</v>
       </c>
       <c r="P17">
-        <v>0.9999524615591936</v>
+        <v>0.9913537749726252</v>
       </c>
       <c r="Q17">
-        <v>0.9999524615591936</v>
+        <v>0.9913537749726252</v>
       </c>
       <c r="R17">
-        <v>0.9999291736364235</v>
+        <v>0.9948856025610926</v>
       </c>
       <c r="S17">
-        <v>0.9999291736364235</v>
+        <v>0.9948856025610926</v>
       </c>
       <c r="T17">
-        <v>1.000032828177218</v>
+        <v>1.000242696903021</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000531232552579</v>
+        <v>1.007350941198851</v>
       </c>
       <c r="D18">
-        <v>0.9988025076539878</v>
+        <v>1.014005700870737</v>
       </c>
       <c r="E18">
-        <v>1.00016691142617</v>
+        <v>1.010872108856179</v>
       </c>
       <c r="F18">
-        <v>1.000531232552579</v>
+        <v>0.9845432079430109</v>
       </c>
       <c r="G18">
-        <v>1.000356941950763</v>
+        <v>1.014005700870737</v>
       </c>
       <c r="H18">
-        <v>0.9994362006208075</v>
+        <v>0.9683123617474433</v>
       </c>
       <c r="I18">
-        <v>1.000273131772514</v>
+        <v>1.004612354773488</v>
       </c>
       <c r="J18">
-        <v>0.9988025076539878</v>
+        <v>0.9683123617474433</v>
       </c>
       <c r="K18">
-        <v>1.000531232552579</v>
+        <v>1.014005700870737</v>
       </c>
       <c r="L18">
-        <v>1.00016691142617</v>
+        <v>1.004612354773488</v>
       </c>
       <c r="M18">
-        <v>0.9994847095400787</v>
+        <v>0.9864623582604655</v>
       </c>
       <c r="N18">
-        <v>0.9994847095400787</v>
+        <v>0.9864623582604655</v>
       </c>
       <c r="O18">
-        <v>0.9994685399003217</v>
+        <v>0.9858226414879806</v>
       </c>
       <c r="P18">
-        <v>0.9998335505442455</v>
+        <v>0.9956434724638893</v>
       </c>
       <c r="Q18">
-        <v>0.9998335505442455</v>
+        <v>0.9956434724638893</v>
       </c>
       <c r="R18">
-        <v>1.000007971046329</v>
+        <v>1.000234029565601</v>
       </c>
       <c r="S18">
-        <v>1.000007971046329</v>
+        <v>1.000234029565601</v>
       </c>
       <c r="T18">
-        <v>0.999927820996137</v>
+        <v>0.9982827792316181</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.008555284570112</v>
+      </c>
+      <c r="D19">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="E19">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="F19">
+        <v>0.9821573768608388</v>
+      </c>
+      <c r="G19">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="H19">
+        <v>0.9626025759582773</v>
+      </c>
+      <c r="I19">
+        <v>1.0046729209227</v>
+      </c>
+      <c r="J19">
+        <v>0.9626025759582773</v>
+      </c>
+      <c r="K19">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="L19">
+        <v>1.0046729209227</v>
+      </c>
+      <c r="M19">
+        <v>0.9836377484404886</v>
+      </c>
+      <c r="N19">
+        <v>0.9836377484404886</v>
+      </c>
+      <c r="O19">
+        <v>0.983144291247272</v>
+      </c>
+      <c r="P19">
+        <v>0.9950883097455581</v>
+      </c>
+      <c r="Q19">
+        <v>0.9950883097455581</v>
+      </c>
+      <c r="R19">
+        <v>1.000813590398093</v>
+      </c>
+      <c r="S19">
+        <v>1.000813590398093</v>
+      </c>
+      <c r="T19">
+        <v>0.9977563215605479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000020260893065</v>
+      </c>
+      <c r="D20">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="E20">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="F20">
+        <v>0.9999851609839436</v>
+      </c>
+      <c r="G20">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="H20">
+        <v>0.9998332418998492</v>
+      </c>
+      <c r="I20">
+        <v>0.9999310172538318</v>
+      </c>
+      <c r="J20">
+        <v>0.9998332418998492</v>
+      </c>
+      <c r="K20">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="L20">
+        <v>0.9999310172538318</v>
+      </c>
+      <c r="M20">
+        <v>0.9998821295768405</v>
+      </c>
+      <c r="N20">
+        <v>0.9998821295768405</v>
+      </c>
+      <c r="O20">
+        <v>0.9999164733792082</v>
+      </c>
+      <c r="P20">
+        <v>1.000000461551463</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000461551463</v>
+      </c>
+      <c r="R20">
+        <v>1.000059627538774</v>
+      </c>
+      <c r="S20">
+        <v>1.000059627538774</v>
+      </c>
+      <c r="T20">
+        <v>0.9999589608234993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000055206580793</v>
+      </c>
+      <c r="D21">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="E21">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="F21">
+        <v>0.9998484609213367</v>
+      </c>
+      <c r="G21">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="H21">
+        <v>0.9998622518457062</v>
+      </c>
+      <c r="I21">
+        <v>1.000135822963761</v>
+      </c>
+      <c r="J21">
+        <v>0.9998622518457062</v>
+      </c>
+      <c r="K21">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="L21">
+        <v>1.000135822963761</v>
+      </c>
+      <c r="M21">
+        <v>0.9999990374047338</v>
+      </c>
+      <c r="N21">
+        <v>0.9999990374047338</v>
+      </c>
+      <c r="O21">
+        <v>0.9999488452436015</v>
+      </c>
+      <c r="P21">
+        <v>0.9999524615591936</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999524615591936</v>
+      </c>
+      <c r="R21">
+        <v>0.9999291736364235</v>
+      </c>
+      <c r="S21">
+        <v>0.9999291736364235</v>
+      </c>
+      <c r="T21">
+        <v>1.000032828177218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000273131772514</v>
+      </c>
+      <c r="D22">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="E22">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="F22">
+        <v>0.9994362006208075</v>
+      </c>
+      <c r="G22">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="H22">
+        <v>0.998802507653988</v>
+      </c>
+      <c r="I22">
+        <v>1.00016691142617</v>
+      </c>
+      <c r="J22">
+        <v>0.998802507653988</v>
+      </c>
+      <c r="K22">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="L22">
+        <v>1.00016691142617</v>
+      </c>
+      <c r="M22">
+        <v>0.9994847095400787</v>
+      </c>
+      <c r="N22">
+        <v>0.9994847095400787</v>
+      </c>
+      <c r="O22">
+        <v>0.9994685399003217</v>
+      </c>
+      <c r="P22">
+        <v>0.9998335505442454</v>
+      </c>
+      <c r="Q22">
+        <v>0.9998335505442455</v>
+      </c>
+      <c r="R22">
+        <v>1.000007971046329</v>
+      </c>
+      <c r="S22">
+        <v>1.000007971046329</v>
+      </c>
+      <c r="T22">
+        <v>0.999927820996137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000679791663401</v>
+      </c>
+      <c r="D23">
         <v>1.00174411269026</v>
       </c>
-      <c r="D19">
+      <c r="E23">
+        <v>1.000253750068274</v>
+      </c>
+      <c r="F23">
+        <v>0.9986652031947066</v>
+      </c>
+      <c r="G23">
+        <v>1.00174411269026</v>
+      </c>
+      <c r="H23">
         <v>0.9968341955644374</v>
       </c>
-      <c r="E19">
+      <c r="I23">
         <v>1.00024179691183</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.9968341955644374</v>
+      </c>
+      <c r="K23">
         <v>1.00174411269026</v>
       </c>
-      <c r="G19">
-        <v>1.000253750068274</v>
-      </c>
-      <c r="H19">
-        <v>0.9986652031947066</v>
-      </c>
-      <c r="I19">
-        <v>1.000679791663401</v>
-      </c>
-      <c r="J19">
-        <v>0.9968341955644374</v>
-      </c>
-      <c r="K19">
-        <v>1.00174411269026</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.00024179691183</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9985379962381336</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9985379962381336</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9985803985569913</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9996067017221755</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9996067017221755</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000141054464196</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000141054464196</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9997364750154848</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000754379497787</v>
+        <v>1.009132556599422</v>
       </c>
       <c r="D3">
-        <v>0.9999407838510856</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="E3">
-        <v>1.003182513720308</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="F3">
-        <v>0.9982234467238364</v>
+        <v>0.9806777285446679</v>
       </c>
       <c r="G3">
-        <v>0.9999407838510856</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="H3">
-        <v>0.9973134401553432</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="I3">
-        <v>1.001089191760224</v>
+        <v>1.006090920504322</v>
       </c>
       <c r="J3">
-        <v>0.9973134401553432</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="K3">
-        <v>0.9999407838510856</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="L3">
-        <v>1.001089191760224</v>
+        <v>1.006090920504322</v>
       </c>
       <c r="M3">
-        <v>0.9992013159577837</v>
+        <v>0.9835340544164262</v>
       </c>
       <c r="N3">
-        <v>0.9992013159577837</v>
+        <v>0.9835340544164262</v>
       </c>
       <c r="O3">
-        <v>0.998875359546468</v>
+        <v>0.9825819457925068</v>
       </c>
       <c r="P3">
-        <v>0.9994478052555511</v>
+        <v>0.9945306127905859</v>
       </c>
       <c r="Q3">
-        <v>0.9994478052555511</v>
+        <v>0.9945306127905859</v>
       </c>
       <c r="R3">
-        <v>0.9995710499044348</v>
+        <v>1.000028891977666</v>
       </c>
       <c r="S3">
-        <v>0.9995710499044348</v>
+        <v>1.000028891977666</v>
       </c>
       <c r="T3">
-        <v>1.000083959284764</v>
+        <v>0.998024525464697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.001455272443113</v>
+        <v>1.008374310350354</v>
       </c>
       <c r="D4">
-        <v>0.9998626105243392</v>
+        <v>1.015452695329857</v>
       </c>
       <c r="E4">
-        <v>1.006166108757411</v>
+        <v>1.013075593115914</v>
       </c>
       <c r="F4">
-        <v>0.9965714064400493</v>
+        <v>0.982328710471488</v>
       </c>
       <c r="G4">
-        <v>0.9998626105243392</v>
+        <v>1.015452695329857</v>
       </c>
       <c r="H4">
-        <v>0.9948234880996217</v>
+        <v>0.9640886236954886</v>
       </c>
       <c r="I4">
-        <v>1.002110686467543</v>
+        <v>1.005461394072864</v>
       </c>
       <c r="J4">
-        <v>0.9948234880996217</v>
+        <v>0.9640886236954886</v>
       </c>
       <c r="K4">
-        <v>0.9998626105243392</v>
+        <v>1.015452695329857</v>
       </c>
       <c r="L4">
-        <v>1.002110686467543</v>
+        <v>1.005461394072864</v>
       </c>
       <c r="M4">
-        <v>0.9984670872835824</v>
+        <v>0.9847750088841765</v>
       </c>
       <c r="N4">
-        <v>0.9984670872835824</v>
+        <v>0.9847750088841765</v>
       </c>
       <c r="O4">
-        <v>0.9978351936690713</v>
+        <v>0.9839595760799469</v>
       </c>
       <c r="P4">
-        <v>0.998932261697168</v>
+        <v>0.9950009043660698</v>
       </c>
       <c r="Q4">
-        <v>0.998932261697168</v>
+        <v>0.9950009043660698</v>
       </c>
       <c r="R4">
-        <v>0.9991648489039608</v>
+        <v>1.000113852107017</v>
       </c>
       <c r="S4">
-        <v>0.9991648489039608</v>
+        <v>1.000113852107017</v>
       </c>
       <c r="T4">
-        <v>1.00016492878868</v>
+        <v>0.9981302211726608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.002802328405436</v>
+        <v>1.010464542398923</v>
       </c>
       <c r="D5">
-        <v>0.9999506472500291</v>
+        <v>1.018492812695416</v>
       </c>
       <c r="E5">
-        <v>1.011588130794782</v>
+        <v>1.017571709865229</v>
       </c>
       <c r="F5">
-        <v>0.993421824569349</v>
+        <v>0.9777843643396229</v>
       </c>
       <c r="G5">
-        <v>0.9999506472500291</v>
+        <v>1.018492812695416</v>
       </c>
       <c r="H5">
-        <v>0.9899564656723986</v>
+        <v>0.9554858855795149</v>
       </c>
       <c r="I5">
-        <v>1.003975844578955</v>
+        <v>1.00716071477089</v>
       </c>
       <c r="J5">
-        <v>0.9899564656723986</v>
+        <v>0.9554858855795149</v>
       </c>
       <c r="K5">
-        <v>0.9999506472500291</v>
+        <v>1.018492812695416</v>
       </c>
       <c r="L5">
-        <v>1.003975844578955</v>
+        <v>1.00716071477089</v>
       </c>
       <c r="M5">
-        <v>0.996966155125677</v>
+        <v>0.9813233001752022</v>
       </c>
       <c r="N5">
-        <v>0.996966155125677</v>
+        <v>0.9813233001752022</v>
       </c>
       <c r="O5">
-        <v>0.995784711606901</v>
+        <v>0.9801436548966759</v>
       </c>
       <c r="P5">
-        <v>0.9979609858337944</v>
+        <v>0.9937131376819401</v>
       </c>
       <c r="Q5">
-        <v>0.9979609858337944</v>
+        <v>0.9937131376819401</v>
       </c>
       <c r="R5">
-        <v>0.9984584011878531</v>
+        <v>0.9999080564353091</v>
       </c>
       <c r="S5">
-        <v>0.9984584011878531</v>
+        <v>0.9999080564353091</v>
       </c>
       <c r="T5">
-        <v>1.000282540211825</v>
+        <v>0.9978266716082658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.004116964224563</v>
+        <v>1.011579759715908</v>
       </c>
       <c r="D6">
-        <v>1.000029305994281</v>
+        <v>1.020254138181819</v>
       </c>
       <c r="E6">
-        <v>1.016884936926356</v>
+        <v>1.019802171875</v>
       </c>
       <c r="F6">
-        <v>0.9903484604050866</v>
+        <v>0.9753706540340906</v>
       </c>
       <c r="G6">
-        <v>1.000029305994281</v>
+        <v>1.020254138181819</v>
       </c>
       <c r="H6">
-        <v>0.9852068918964512</v>
+        <v>0.9508553391477279</v>
       </c>
       <c r="I6">
-        <v>1.005799116906693</v>
+        <v>1.008010054375</v>
       </c>
       <c r="J6">
-        <v>0.9852068918964512</v>
+        <v>0.9508553391477279</v>
       </c>
       <c r="K6">
-        <v>1.000029305994281</v>
+        <v>1.020254138181819</v>
       </c>
       <c r="L6">
-        <v>1.005799116906693</v>
+        <v>1.008010054375</v>
       </c>
       <c r="M6">
-        <v>0.9955030044015722</v>
+        <v>0.9794326967613638</v>
       </c>
       <c r="N6">
-        <v>0.9955030044015722</v>
+        <v>0.9794326967613638</v>
       </c>
       <c r="O6">
-        <v>0.9937848230694103</v>
+        <v>0.9780786825189395</v>
       </c>
       <c r="P6">
-        <v>0.9970117715991419</v>
+        <v>0.9930398439015153</v>
       </c>
       <c r="Q6">
-        <v>0.9970117715991419</v>
+        <v>0.9930398439015153</v>
       </c>
       <c r="R6">
-        <v>0.9977661551979267</v>
+        <v>0.9998434174715911</v>
       </c>
       <c r="S6">
-        <v>0.9977661551979267</v>
+        <v>0.9998434174715911</v>
       </c>
       <c r="T6">
-        <v>1.000397612725572</v>
+        <v>0.9976453528882575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000028664589867</v>
+        <v>1.014481152939379</v>
       </c>
       <c r="D7">
-        <v>1.000097256621645</v>
+        <v>0.9890041424791474</v>
       </c>
       <c r="E7">
-        <v>0.999988484372741</v>
+        <v>1.074506958620266</v>
       </c>
       <c r="F7">
-        <v>0.9999437309581196</v>
+        <v>0.9647004638349618</v>
       </c>
       <c r="G7">
-        <v>1.000097256621645</v>
+        <v>0.9890041424791474</v>
       </c>
       <c r="H7">
-        <v>0.9998628130148677</v>
+        <v>0.9520525931272347</v>
       </c>
       <c r="I7">
-        <v>1.000000438172581</v>
+        <v>1.024965497047719</v>
       </c>
       <c r="J7">
-        <v>0.9998628130148677</v>
+        <v>0.9520525931272347</v>
       </c>
       <c r="K7">
-        <v>1.000097256621645</v>
+        <v>0.9890041424791474</v>
       </c>
       <c r="L7">
-        <v>1.000000438172581</v>
+        <v>1.024965497047719</v>
       </c>
       <c r="M7">
-        <v>0.9999316255937244</v>
+        <v>0.9885090450874769</v>
       </c>
       <c r="N7">
-        <v>0.9999316255937244</v>
+        <v>0.9885090450874769</v>
       </c>
       <c r="O7">
-        <v>0.9999356607151895</v>
+        <v>0.9805728513366385</v>
       </c>
       <c r="P7">
-        <v>0.9999868359363647</v>
+        <v>0.988674077551367</v>
       </c>
       <c r="Q7">
-        <v>0.9999868359363647</v>
+        <v>0.9886740775513672</v>
       </c>
       <c r="R7">
-        <v>1.000014441107685</v>
+        <v>0.9887565937833123</v>
       </c>
       <c r="S7">
-        <v>1.000014441107685</v>
+        <v>0.9887565937833123</v>
       </c>
       <c r="T7">
-        <v>0.9999868979549703</v>
+        <v>1.003285134674785</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000018599871541</v>
+        <v>1.014159143809161</v>
       </c>
       <c r="D8">
-        <v>1.000172325160165</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="E8">
-        <v>0.9998549405956716</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="F8">
-        <v>0.9999736050777578</v>
+        <v>0.9654424210287603</v>
       </c>
       <c r="G8">
-        <v>1.000172325160165</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="H8">
-        <v>0.9998763468240673</v>
+        <v>0.9532306849605919</v>
       </c>
       <c r="I8">
-        <v>0.9999553389915542</v>
+        <v>1.024507468359565</v>
       </c>
       <c r="J8">
-        <v>0.9998763468240673</v>
+        <v>0.9532306849605919</v>
       </c>
       <c r="K8">
-        <v>1.000172325160165</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="L8">
-        <v>0.9999553389915542</v>
+        <v>1.024507468359565</v>
       </c>
       <c r="M8">
-        <v>0.9999158429078108</v>
+        <v>0.9888690766600785</v>
       </c>
       <c r="N8">
-        <v>0.9999158429078108</v>
+        <v>0.9888690766600785</v>
       </c>
       <c r="O8">
-        <v>0.9999350969644598</v>
+        <v>0.9810601914496391</v>
       </c>
       <c r="P8">
-        <v>1.000001336991929</v>
+        <v>0.9889169382839276</v>
       </c>
       <c r="Q8">
-        <v>1.000001336991929</v>
+        <v>0.9889169382839276</v>
       </c>
       <c r="R8">
-        <v>1.000044084033988</v>
+        <v>0.9889408690958521</v>
       </c>
       <c r="S8">
-        <v>1.000044084033988</v>
+        <v>0.9889408690958521</v>
       </c>
       <c r="T8">
-        <v>0.9999751927534595</v>
+        <v>1.003262334988839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999260370378639</v>
+        <v>1.014094282020263</v>
       </c>
       <c r="D9">
-        <v>1.000092017773682</v>
+        <v>0.9893182723163754</v>
       </c>
       <c r="E9">
-        <v>0.9995987428932059</v>
+        <v>1.072556343321024</v>
       </c>
       <c r="F9">
-        <v>1.000176647688572</v>
+        <v>0.9656267301517452</v>
       </c>
       <c r="G9">
-        <v>1.000092017773682</v>
+        <v>0.9893182723163754</v>
       </c>
       <c r="H9">
-        <v>1.000245746394825</v>
+        <v>0.9533598382677685</v>
       </c>
       <c r="I9">
-        <v>0.9998577339844977</v>
+        <v>1.024290148848971</v>
       </c>
       <c r="J9">
-        <v>1.000245746394825</v>
+        <v>0.9533598382677685</v>
       </c>
       <c r="K9">
-        <v>1.000092017773682</v>
+        <v>0.9893182723163754</v>
       </c>
       <c r="L9">
-        <v>0.9998577339844977</v>
+        <v>1.024290148848971</v>
       </c>
       <c r="M9">
-        <v>1.000051740189661</v>
+        <v>0.9888249935583697</v>
       </c>
       <c r="N9">
-        <v>1.000051740189661</v>
+        <v>0.9888249935583697</v>
       </c>
       <c r="O9">
-        <v>1.000093376022631</v>
+        <v>0.9810922390894948</v>
       </c>
       <c r="P9">
-        <v>1.000065166051002</v>
+        <v>0.9889894198110382</v>
       </c>
       <c r="Q9">
-        <v>1.000065166051002</v>
+        <v>0.9889894198110384</v>
       </c>
       <c r="R9">
-        <v>1.000071878981672</v>
+        <v>0.9890716329373725</v>
       </c>
       <c r="S9">
-        <v>1.000071878981672</v>
+        <v>0.9890716329373725</v>
       </c>
       <c r="T9">
-        <v>0.9999828209621078</v>
+        <v>1.003207602487691</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999321680097619</v>
+        <v>1.012053269208338</v>
       </c>
       <c r="D10">
-        <v>1.000349468785367</v>
+        <v>0.9877849493610067</v>
       </c>
       <c r="E10">
-        <v>0.9992974170295222</v>
+        <v>1.066504107603079</v>
       </c>
       <c r="F10">
-        <v>1.000186746078138</v>
+        <v>0.9701554330408048</v>
       </c>
       <c r="G10">
-        <v>1.000349468785367</v>
+        <v>0.9877849493610067</v>
       </c>
       <c r="H10">
-        <v>1.00014098850288</v>
+        <v>0.9613779035359314</v>
       </c>
       <c r="I10">
-        <v>0.9997604394699503</v>
+        <v>1.022040210681601</v>
       </c>
       <c r="J10">
-        <v>1.00014098850288</v>
+        <v>0.9613779035359314</v>
       </c>
       <c r="K10">
-        <v>1.000349468785367</v>
+        <v>0.9877849493610067</v>
       </c>
       <c r="L10">
-        <v>0.9997604394699503</v>
+        <v>1.022040210681601</v>
       </c>
       <c r="M10">
-        <v>0.999950713986415</v>
+        <v>0.9917090571087663</v>
       </c>
       <c r="N10">
-        <v>0.999950713986415</v>
+        <v>0.9917090571087663</v>
       </c>
       <c r="O10">
-        <v>1.000029391350323</v>
+        <v>0.9845245157527791</v>
       </c>
       <c r="P10">
-        <v>1.000083632252732</v>
+        <v>0.9904010211928465</v>
       </c>
       <c r="Q10">
-        <v>1.000083632252732</v>
+        <v>0.9904010211928465</v>
       </c>
       <c r="R10">
-        <v>1.000150091385891</v>
+        <v>0.9897470032348865</v>
       </c>
       <c r="S10">
-        <v>1.000150091385891</v>
+        <v>0.9897470032348865</v>
       </c>
       <c r="T10">
-        <v>0.9999445379792699</v>
+        <v>1.00331931223846</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9996584310695216</v>
+        <v>1.000875397562814</v>
       </c>
       <c r="D11">
-        <v>1.000230600643486</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="E11">
-        <v>0.9983957496122602</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="F11">
-        <v>1.000796652139727</v>
+        <v>0.9979352897557129</v>
       </c>
       <c r="G11">
-        <v>1.000230600643486</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="H11">
-        <v>1.001198526200765</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="I11">
-        <v>0.9994229713965666</v>
+        <v>1.001279195195088</v>
       </c>
       <c r="J11">
-        <v>1.001198526200765</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="K11">
-        <v>1.000230600643486</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="L11">
-        <v>0.9994229713965666</v>
+        <v>1.001279195195088</v>
       </c>
       <c r="M11">
-        <v>1.000310748798666</v>
+        <v>0.9990864717760065</v>
       </c>
       <c r="N11">
-        <v>1.000310748798666</v>
+        <v>0.9990864717760065</v>
       </c>
       <c r="O11">
-        <v>1.000472716579019</v>
+        <v>0.9987027444359087</v>
       </c>
       <c r="P11">
-        <v>1.000284032746939</v>
+        <v>0.9993557034067043</v>
       </c>
       <c r="Q11">
-        <v>1.000284032746939</v>
+        <v>0.9993557034067043</v>
       </c>
       <c r="R11">
-        <v>1.000270674721076</v>
+        <v>0.9994903192220531</v>
       </c>
       <c r="S11">
-        <v>1.000270674721076</v>
+        <v>0.9994903192220531</v>
       </c>
       <c r="T11">
-        <v>0.9999504885103878</v>
+        <v>1.000102773519747</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.001359776493563</v>
+        <v>1.000350986542135</v>
       </c>
       <c r="D12">
-        <v>0.9985390216161666</v>
+        <v>0.999825698675101</v>
       </c>
       <c r="E12">
-        <v>1.006068376289979</v>
+        <v>1.001685906372364</v>
       </c>
       <c r="F12">
-        <v>0.9970636620381401</v>
+        <v>0.9991540489978337</v>
       </c>
       <c r="G12">
-        <v>0.9985390216161666</v>
+        <v>0.999825698675101</v>
       </c>
       <c r="H12">
-        <v>0.9948998809505066</v>
+        <v>0.9988067338132285</v>
       </c>
       <c r="I12">
-        <v>1.002520573470641</v>
+        <v>1.000567154770971</v>
       </c>
       <c r="J12">
-        <v>0.9948998809505066</v>
+        <v>0.9988067338132285</v>
       </c>
       <c r="K12">
-        <v>0.9985390216161666</v>
+        <v>0.999825698675101</v>
       </c>
       <c r="L12">
-        <v>1.002520573470641</v>
+        <v>1.000567154770971</v>
       </c>
       <c r="M12">
-        <v>0.9987102272105739</v>
+        <v>0.9996869442920999</v>
       </c>
       <c r="N12">
-        <v>0.9987102272105739</v>
+        <v>0.9996869442920999</v>
       </c>
       <c r="O12">
-        <v>0.998161372153096</v>
+        <v>0.9995093125273445</v>
       </c>
       <c r="P12">
-        <v>0.9986531586791049</v>
+        <v>0.9997331957531003</v>
       </c>
       <c r="Q12">
-        <v>0.9986531586791049</v>
+        <v>0.9997331957531003</v>
       </c>
       <c r="R12">
-        <v>0.9986246244133703</v>
+        <v>0.9997563214836004</v>
       </c>
       <c r="S12">
-        <v>0.9986246244133703</v>
+        <v>0.9997563214836004</v>
       </c>
       <c r="T12">
-        <v>1.000075215143166</v>
+        <v>1.000065088195272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000325035774882</v>
+        <v>1.00047036710994</v>
       </c>
       <c r="D13">
-        <v>1.002150129736611</v>
+        <v>0.9985945834756861</v>
       </c>
       <c r="E13">
-        <v>1.000107663060356</v>
+        <v>1.003925138316173</v>
       </c>
       <c r="F13">
-        <v>0.9990153688385858</v>
+        <v>0.9987037794662567</v>
       </c>
       <c r="G13">
-        <v>1.002150129736611</v>
+        <v>0.9985945834756861</v>
       </c>
       <c r="H13">
-        <v>0.9988911172967686</v>
+        <v>0.9988673051205734</v>
       </c>
       <c r="I13">
-        <v>0.9995739654508983</v>
+        <v>1.001242281145183</v>
       </c>
       <c r="J13">
-        <v>0.9988911172967686</v>
+        <v>0.9988673051205734</v>
       </c>
       <c r="K13">
-        <v>1.002150129736611</v>
+        <v>0.9985945834756861</v>
       </c>
       <c r="L13">
-        <v>0.9995739654508983</v>
+        <v>1.001242281145183</v>
       </c>
       <c r="M13">
-        <v>0.9992325413738334</v>
+        <v>1.000054793132878</v>
       </c>
       <c r="N13">
-        <v>0.9992325413738334</v>
+        <v>1.000054793132878</v>
       </c>
       <c r="O13">
-        <v>0.999160150528751</v>
+        <v>0.9996044552440043</v>
       </c>
       <c r="P13">
-        <v>1.000205070828093</v>
+        <v>0.9995680565804808</v>
       </c>
       <c r="Q13">
-        <v>1.000205070828093</v>
+        <v>0.9995680565804808</v>
       </c>
       <c r="R13">
-        <v>1.000691335555222</v>
+        <v>0.9993246883042821</v>
       </c>
       <c r="S13">
-        <v>1.000691335555222</v>
+        <v>0.9993246883042821</v>
       </c>
       <c r="T13">
-        <v>1.000010546693017</v>
+        <v>1.000300575772302</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8645977896334297</v>
+        <v>1.002098500345163</v>
       </c>
       <c r="D14">
-        <v>0.8489902940146983</v>
+        <v>0.9999501154458145</v>
       </c>
       <c r="E14">
-        <v>0.6616320149711334</v>
+        <v>1.00869194110512</v>
       </c>
       <c r="F14">
-        <v>1.295572467635066</v>
+        <v>0.9950733625146502</v>
       </c>
       <c r="G14">
-        <v>0.8489902940146983</v>
+        <v>0.9999501154458145</v>
       </c>
       <c r="H14">
-        <v>1.548079765550479</v>
+        <v>0.9924820607781546</v>
       </c>
       <c r="I14">
-        <v>0.8710206287832202</v>
+        <v>1.002982603184354</v>
       </c>
       <c r="J14">
-        <v>1.548079765550479</v>
+        <v>0.9924820607781546</v>
       </c>
       <c r="K14">
-        <v>0.8489902940146983</v>
+        <v>0.9999501154458145</v>
       </c>
       <c r="L14">
-        <v>0.8710206287832202</v>
+        <v>1.002982603184354</v>
       </c>
       <c r="M14">
-        <v>1.20955019716685</v>
+        <v>0.9977323319812541</v>
       </c>
       <c r="N14">
-        <v>1.20955019716685</v>
+        <v>0.9977323319812541</v>
       </c>
       <c r="O14">
-        <v>1.238224287322922</v>
+        <v>0.9968460088257194</v>
       </c>
       <c r="P14">
-        <v>1.089363562782799</v>
+        <v>0.9984715931361076</v>
       </c>
       <c r="Q14">
-        <v>1.089363562782799</v>
+        <v>0.9984715931361077</v>
       </c>
       <c r="R14">
-        <v>1.029270245590774</v>
+        <v>0.9988412237135343</v>
       </c>
       <c r="S14">
-        <v>1.029270245590774</v>
+        <v>0.9988412237135343</v>
       </c>
       <c r="T14">
-        <v>1.014982160098004</v>
+        <v>1.000213097228876</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9648906036752073</v>
+        <v>1.000754379497787</v>
       </c>
       <c r="D15">
-        <v>0.9711561553077607</v>
+        <v>0.9999407838510856</v>
       </c>
       <c r="E15">
-        <v>0.8961192061560384</v>
+        <v>1.003182513720308</v>
       </c>
       <c r="F15">
-        <v>1.078493950850909</v>
+        <v>0.9982234467238364</v>
       </c>
       <c r="G15">
-        <v>0.9711561553077607</v>
+        <v>0.9999407838510856</v>
       </c>
       <c r="H15">
-        <v>1.137269315054173</v>
+        <v>0.9973134401553432</v>
       </c>
       <c r="I15">
-        <v>0.9623121884336756</v>
+        <v>1.001089191760224</v>
       </c>
       <c r="J15">
-        <v>1.137269315054173</v>
+        <v>0.9973134401553432</v>
       </c>
       <c r="K15">
-        <v>0.9711561553077607</v>
+        <v>0.9999407838510856</v>
       </c>
       <c r="L15">
-        <v>0.9623121884336756</v>
+        <v>1.001089191760224</v>
       </c>
       <c r="M15">
-        <v>1.049790751743924</v>
+        <v>0.9992013159577837</v>
       </c>
       <c r="N15">
-        <v>1.049790751743924</v>
+        <v>0.9992013159577837</v>
       </c>
       <c r="O15">
-        <v>1.059358484779586</v>
+        <v>0.998875359546468</v>
       </c>
       <c r="P15">
-        <v>1.023579219598536</v>
+        <v>0.9994478052555511</v>
       </c>
       <c r="Q15">
-        <v>1.023579219598536</v>
+        <v>0.9994478052555511</v>
       </c>
       <c r="R15">
-        <v>1.010473453525843</v>
+        <v>0.9995710499044348</v>
       </c>
       <c r="S15">
-        <v>1.010473453525843</v>
+        <v>0.9995710499044348</v>
       </c>
       <c r="T15">
-        <v>1.001706903246294</v>
+        <v>1.000083959284764</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.014859137939484</v>
+        <v>1.001455272443113</v>
       </c>
       <c r="D16">
-        <v>1.001055077117654</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="E16">
-        <v>1.059500844705148</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="F16">
-        <v>0.9653229860953876</v>
+        <v>0.9965714064400493</v>
       </c>
       <c r="G16">
-        <v>1.001055077117654</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="H16">
-        <v>0.9461843958926811</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="I16">
-        <v>1.020539806253167</v>
+        <v>1.002110686467543</v>
       </c>
       <c r="J16">
-        <v>0.9461843958926811</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="K16">
-        <v>1.001055077117654</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="L16">
-        <v>1.020539806253167</v>
+        <v>1.002110686467543</v>
       </c>
       <c r="M16">
-        <v>0.9833621010729243</v>
+        <v>0.9984670872835824</v>
       </c>
       <c r="N16">
-        <v>0.9833621010729243</v>
+        <v>0.9984670872835824</v>
       </c>
       <c r="O16">
-        <v>0.9773490627470788</v>
+        <v>0.9978351936690713</v>
       </c>
       <c r="P16">
-        <v>0.9892597597545011</v>
+        <v>0.998932261697168</v>
       </c>
       <c r="Q16">
-        <v>0.9892597597545011</v>
+        <v>0.998932261697168</v>
       </c>
       <c r="R16">
-        <v>0.9922085890952894</v>
+        <v>0.9991648489039608</v>
       </c>
       <c r="S16">
-        <v>0.9922085890952894</v>
+        <v>0.9991648489039608</v>
       </c>
       <c r="T16">
-        <v>1.001243708000587</v>
+        <v>1.00016492878868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.012412946523407</v>
+        <v>1.002802328405436</v>
       </c>
       <c r="D17">
-        <v>1.005481085326495</v>
+        <v>0.9999506472500291</v>
       </c>
       <c r="E17">
-        <v>1.043370074782434</v>
+        <v>1.011588130794782</v>
       </c>
       <c r="F17">
-        <v>0.9716118351944067</v>
+        <v>0.993421824569349</v>
       </c>
       <c r="G17">
-        <v>1.005481085326495</v>
+        <v>0.9999506472500291</v>
       </c>
       <c r="H17">
-        <v>0.953314685463902</v>
+        <v>0.9899564656723986</v>
       </c>
       <c r="I17">
-        <v>1.015265554127479</v>
+        <v>1.003975844578955</v>
       </c>
       <c r="J17">
-        <v>0.953314685463902</v>
+        <v>0.9899564656723986</v>
       </c>
       <c r="K17">
-        <v>1.005481085326495</v>
+        <v>0.9999506472500291</v>
       </c>
       <c r="L17">
-        <v>1.015265554127479</v>
+        <v>1.003975844578955</v>
       </c>
       <c r="M17">
-        <v>0.9842901197956904</v>
+        <v>0.996966155125677</v>
       </c>
       <c r="N17">
-        <v>0.9842901197956904</v>
+        <v>0.996966155125677</v>
       </c>
       <c r="O17">
-        <v>0.9800640249285958</v>
+        <v>0.995784711606901</v>
       </c>
       <c r="P17">
-        <v>0.9913537749726252</v>
+        <v>0.9979609858337944</v>
       </c>
       <c r="Q17">
-        <v>0.9913537749726252</v>
+        <v>0.9979609858337944</v>
       </c>
       <c r="R17">
-        <v>0.9948856025610926</v>
+        <v>0.9984584011878531</v>
       </c>
       <c r="S17">
-        <v>0.9948856025610926</v>
+        <v>0.9984584011878531</v>
       </c>
       <c r="T17">
-        <v>1.000242696903021</v>
+        <v>1.000282540211825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.007350941198851</v>
+        <v>1.004116964224563</v>
       </c>
       <c r="D18">
-        <v>1.014005700870737</v>
+        <v>1.000029305994281</v>
       </c>
       <c r="E18">
-        <v>1.010872108856179</v>
+        <v>1.016884936926356</v>
       </c>
       <c r="F18">
-        <v>0.9845432079430109</v>
+        <v>0.9903484604050866</v>
       </c>
       <c r="G18">
-        <v>1.014005700870737</v>
+        <v>1.000029305994281</v>
       </c>
       <c r="H18">
-        <v>0.9683123617474433</v>
+        <v>0.9852068918964512</v>
       </c>
       <c r="I18">
-        <v>1.004612354773488</v>
+        <v>1.005799116906693</v>
       </c>
       <c r="J18">
-        <v>0.9683123617474433</v>
+        <v>0.9852068918964512</v>
       </c>
       <c r="K18">
-        <v>1.014005700870737</v>
+        <v>1.000029305994281</v>
       </c>
       <c r="L18">
-        <v>1.004612354773488</v>
+        <v>1.005799116906693</v>
       </c>
       <c r="M18">
-        <v>0.9864623582604655</v>
+        <v>0.9955030044015722</v>
       </c>
       <c r="N18">
-        <v>0.9864623582604655</v>
+        <v>0.9955030044015722</v>
       </c>
       <c r="O18">
-        <v>0.9858226414879806</v>
+        <v>0.9937848230694103</v>
       </c>
       <c r="P18">
-        <v>0.9956434724638893</v>
+        <v>0.9970117715991419</v>
       </c>
       <c r="Q18">
-        <v>0.9956434724638893</v>
+        <v>0.9970117715991419</v>
       </c>
       <c r="R18">
-        <v>1.000234029565601</v>
+        <v>0.9977661551979267</v>
       </c>
       <c r="S18">
-        <v>1.000234029565601</v>
+        <v>0.9977661551979267</v>
       </c>
       <c r="T18">
-        <v>0.9982827792316181</v>
+        <v>1.000397612725572</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.008555284570112</v>
+        <v>1.000028664589867</v>
       </c>
       <c r="D19">
-        <v>1.017989432355697</v>
+        <v>1.000097256621645</v>
       </c>
       <c r="E19">
-        <v>1.010560338695662</v>
+        <v>0.999988484372741</v>
       </c>
       <c r="F19">
-        <v>0.9821573768608388</v>
+        <v>0.9999437309581196</v>
       </c>
       <c r="G19">
-        <v>1.017989432355697</v>
+        <v>1.000097256621645</v>
       </c>
       <c r="H19">
-        <v>0.9626025759582773</v>
+        <v>0.9998628130148677</v>
       </c>
       <c r="I19">
-        <v>1.0046729209227</v>
+        <v>1.000000438172581</v>
       </c>
       <c r="J19">
-        <v>0.9626025759582773</v>
+        <v>0.9998628130148677</v>
       </c>
       <c r="K19">
-        <v>1.017989432355697</v>
+        <v>1.000097256621645</v>
       </c>
       <c r="L19">
-        <v>1.0046729209227</v>
+        <v>1.000000438172581</v>
       </c>
       <c r="M19">
-        <v>0.9836377484404886</v>
+        <v>0.9999316255937244</v>
       </c>
       <c r="N19">
-        <v>0.9836377484404886</v>
+        <v>0.9999316255937244</v>
       </c>
       <c r="O19">
-        <v>0.983144291247272</v>
+        <v>0.9999356607151895</v>
       </c>
       <c r="P19">
-        <v>0.9950883097455581</v>
+        <v>0.9999868359363647</v>
       </c>
       <c r="Q19">
-        <v>0.9950883097455581</v>
+        <v>0.9999868359363647</v>
       </c>
       <c r="R19">
-        <v>1.000813590398093</v>
+        <v>1.000014441107685</v>
       </c>
       <c r="S19">
-        <v>1.000813590398093</v>
+        <v>1.000014441107685</v>
       </c>
       <c r="T19">
-        <v>0.9977563215605479</v>
+        <v>0.9999868979549703</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000020260893065</v>
+        <v>1.000018599871541</v>
       </c>
       <c r="D20">
-        <v>1.000237125500707</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="E20">
-        <v>0.9997469584095989</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="F20">
-        <v>0.9999851609839436</v>
+        <v>0.9999736050777578</v>
       </c>
       <c r="G20">
-        <v>1.000237125500707</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="H20">
-        <v>0.9998332418998492</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="I20">
-        <v>0.9999310172538318</v>
+        <v>0.9999553389915542</v>
       </c>
       <c r="J20">
-        <v>0.9998332418998492</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="K20">
-        <v>1.000237125500707</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="L20">
-        <v>0.9999310172538318</v>
+        <v>0.9999553389915542</v>
       </c>
       <c r="M20">
-        <v>0.9998821295768405</v>
+        <v>0.9999158429078108</v>
       </c>
       <c r="N20">
-        <v>0.9998821295768405</v>
+        <v>0.9999158429078108</v>
       </c>
       <c r="O20">
-        <v>0.9999164733792082</v>
+        <v>0.9999350969644598</v>
       </c>
       <c r="P20">
-        <v>1.000000461551463</v>
+        <v>1.000001336991929</v>
       </c>
       <c r="Q20">
-        <v>1.000000461551463</v>
+        <v>1.000001336991929</v>
       </c>
       <c r="R20">
-        <v>1.000059627538774</v>
+        <v>1.000044084033988</v>
       </c>
       <c r="S20">
-        <v>1.000059627538774</v>
+        <v>1.000044084033988</v>
       </c>
       <c r="T20">
-        <v>0.9999589608234993</v>
+        <v>0.9999751927534595</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000055206580793</v>
+        <v>0.9999260370378639</v>
       </c>
       <c r="D21">
-        <v>0.9998593098681134</v>
+        <v>1.000092017773682</v>
       </c>
       <c r="E21">
-        <v>1.000435916883597</v>
+        <v>0.9995987428932059</v>
       </c>
       <c r="F21">
-        <v>0.9998484609213367</v>
+        <v>1.000176647688572</v>
       </c>
       <c r="G21">
-        <v>0.9998593098681134</v>
+        <v>1.000092017773682</v>
       </c>
       <c r="H21">
-        <v>0.9998622518457062</v>
+        <v>1.000245746394825</v>
       </c>
       <c r="I21">
-        <v>1.000135822963761</v>
+        <v>0.9998577339844977</v>
       </c>
       <c r="J21">
-        <v>0.9998622518457062</v>
+        <v>1.000245746394825</v>
       </c>
       <c r="K21">
-        <v>0.9998593098681134</v>
+        <v>1.000092017773682</v>
       </c>
       <c r="L21">
-        <v>1.000135822963761</v>
+        <v>0.9998577339844977</v>
       </c>
       <c r="M21">
-        <v>0.9999990374047338</v>
+        <v>1.000051740189661</v>
       </c>
       <c r="N21">
-        <v>0.9999990374047338</v>
+        <v>1.000051740189661</v>
       </c>
       <c r="O21">
-        <v>0.9999488452436015</v>
+        <v>1.000093376022631</v>
       </c>
       <c r="P21">
-        <v>0.9999524615591936</v>
+        <v>1.000065166051002</v>
       </c>
       <c r="Q21">
-        <v>0.9999524615591936</v>
+        <v>1.000065166051002</v>
       </c>
       <c r="R21">
-        <v>0.9999291736364235</v>
+        <v>1.000071878981672</v>
       </c>
       <c r="S21">
-        <v>0.9999291736364235</v>
+        <v>1.000071878981672</v>
       </c>
       <c r="T21">
-        <v>1.000032828177218</v>
+        <v>0.9999828209621078</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000273131772514</v>
+        <v>0.9999321680097619</v>
       </c>
       <c r="D22">
-        <v>1.000531232552579</v>
+        <v>1.000349468785367</v>
       </c>
       <c r="E22">
-        <v>1.000356941950763</v>
+        <v>0.9992974170295222</v>
       </c>
       <c r="F22">
-        <v>0.9994362006208075</v>
+        <v>1.000186746078138</v>
       </c>
       <c r="G22">
-        <v>1.000531232552579</v>
+        <v>1.000349468785367</v>
       </c>
       <c r="H22">
-        <v>0.998802507653988</v>
+        <v>1.00014098850288</v>
       </c>
       <c r="I22">
-        <v>1.00016691142617</v>
+        <v>0.9997604394699503</v>
       </c>
       <c r="J22">
-        <v>0.998802507653988</v>
+        <v>1.00014098850288</v>
       </c>
       <c r="K22">
-        <v>1.000531232552579</v>
+        <v>1.000349468785367</v>
       </c>
       <c r="L22">
-        <v>1.00016691142617</v>
+        <v>0.9997604394699503</v>
       </c>
       <c r="M22">
-        <v>0.9994847095400787</v>
+        <v>0.999950713986415</v>
       </c>
       <c r="N22">
-        <v>0.9994847095400787</v>
+        <v>0.999950713986415</v>
       </c>
       <c r="O22">
-        <v>0.9994685399003217</v>
+        <v>1.000029391350323</v>
       </c>
       <c r="P22">
-        <v>0.9998335505442454</v>
+        <v>1.000083632252732</v>
       </c>
       <c r="Q22">
-        <v>0.9998335505442455</v>
+        <v>1.000083632252732</v>
       </c>
       <c r="R22">
-        <v>1.000007971046329</v>
+        <v>1.000150091385891</v>
       </c>
       <c r="S22">
-        <v>1.000007971046329</v>
+        <v>1.000150091385891</v>
       </c>
       <c r="T22">
-        <v>0.999927820996137</v>
+        <v>0.9999445379792699</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9996584310695216</v>
+      </c>
+      <c r="D23">
+        <v>1.000230600643486</v>
+      </c>
+      <c r="E23">
+        <v>0.9983957496122602</v>
+      </c>
+      <c r="F23">
+        <v>1.000796652139727</v>
+      </c>
+      <c r="G23">
+        <v>1.000230600643486</v>
+      </c>
+      <c r="H23">
+        <v>1.001198526200765</v>
+      </c>
+      <c r="I23">
+        <v>0.9994229713965666</v>
+      </c>
+      <c r="J23">
+        <v>1.001198526200765</v>
+      </c>
+      <c r="K23">
+        <v>1.000230600643486</v>
+      </c>
+      <c r="L23">
+        <v>0.9994229713965666</v>
+      </c>
+      <c r="M23">
+        <v>1.000310748798666</v>
+      </c>
+      <c r="N23">
+        <v>1.000310748798666</v>
+      </c>
+      <c r="O23">
+        <v>1.000472716579019</v>
+      </c>
+      <c r="P23">
+        <v>1.000284032746939</v>
+      </c>
+      <c r="Q23">
+        <v>1.000284032746939</v>
+      </c>
+      <c r="R23">
+        <v>1.000270674721076</v>
+      </c>
+      <c r="S23">
+        <v>1.000270674721076</v>
+      </c>
+      <c r="T23">
+        <v>0.9999504885103878</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.001359776493563</v>
+      </c>
+      <c r="D24">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="E24">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="F24">
+        <v>0.9970636620381401</v>
+      </c>
+      <c r="G24">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="H24">
+        <v>0.9948998809505066</v>
+      </c>
+      <c r="I24">
+        <v>1.002520573470641</v>
+      </c>
+      <c r="J24">
+        <v>0.9948998809505066</v>
+      </c>
+      <c r="K24">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="L24">
+        <v>1.002520573470641</v>
+      </c>
+      <c r="M24">
+        <v>0.9987102272105739</v>
+      </c>
+      <c r="N24">
+        <v>0.9987102272105739</v>
+      </c>
+      <c r="O24">
+        <v>0.998161372153096</v>
+      </c>
+      <c r="P24">
+        <v>0.9986531586791049</v>
+      </c>
+      <c r="Q24">
+        <v>0.9986531586791049</v>
+      </c>
+      <c r="R24">
+        <v>0.9986246244133703</v>
+      </c>
+      <c r="S24">
+        <v>0.9986246244133703</v>
+      </c>
+      <c r="T24">
+        <v>1.000075215143166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000325035774882</v>
+      </c>
+      <c r="D25">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="E25">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="F25">
+        <v>0.9990153688385858</v>
+      </c>
+      <c r="G25">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="H25">
+        <v>0.9988911172967686</v>
+      </c>
+      <c r="I25">
+        <v>0.9995739654508983</v>
+      </c>
+      <c r="J25">
+        <v>0.9988911172967686</v>
+      </c>
+      <c r="K25">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="L25">
+        <v>0.9995739654508983</v>
+      </c>
+      <c r="M25">
+        <v>0.9992325413738334</v>
+      </c>
+      <c r="N25">
+        <v>0.9992325413738334</v>
+      </c>
+      <c r="O25">
+        <v>0.999160150528751</v>
+      </c>
+      <c r="P25">
+        <v>1.000205070828093</v>
+      </c>
+      <c r="Q25">
+        <v>1.000205070828093</v>
+      </c>
+      <c r="R25">
+        <v>1.000691335555222</v>
+      </c>
+      <c r="S25">
+        <v>1.000691335555222</v>
+      </c>
+      <c r="T25">
+        <v>1.000010546693017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.8645977896334297</v>
+      </c>
+      <c r="D26">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="E26">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="F26">
+        <v>1.295572467635066</v>
+      </c>
+      <c r="G26">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="H26">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="I26">
+        <v>0.8710206287832202</v>
+      </c>
+      <c r="J26">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="K26">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="L26">
+        <v>0.8710206287832202</v>
+      </c>
+      <c r="M26">
+        <v>1.20955019716685</v>
+      </c>
+      <c r="N26">
+        <v>1.20955019716685</v>
+      </c>
+      <c r="O26">
+        <v>1.238224287322922</v>
+      </c>
+      <c r="P26">
+        <v>1.089363562782799</v>
+      </c>
+      <c r="Q26">
+        <v>1.089363562782799</v>
+      </c>
+      <c r="R26">
+        <v>1.029270245590774</v>
+      </c>
+      <c r="S26">
+        <v>1.029270245590774</v>
+      </c>
+      <c r="T26">
+        <v>1.014982160098004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9648906036752073</v>
+      </c>
+      <c r="D27">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="E27">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="F27">
+        <v>1.078493950850909</v>
+      </c>
+      <c r="G27">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="H27">
+        <v>1.137269315054173</v>
+      </c>
+      <c r="I27">
+        <v>0.9623121884336756</v>
+      </c>
+      <c r="J27">
+        <v>1.137269315054173</v>
+      </c>
+      <c r="K27">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="L27">
+        <v>0.9623121884336756</v>
+      </c>
+      <c r="M27">
+        <v>1.049790751743924</v>
+      </c>
+      <c r="N27">
+        <v>1.049790751743924</v>
+      </c>
+      <c r="O27">
+        <v>1.059358484779586</v>
+      </c>
+      <c r="P27">
+        <v>1.023579219598536</v>
+      </c>
+      <c r="Q27">
+        <v>1.023579219598536</v>
+      </c>
+      <c r="R27">
+        <v>1.010473453525843</v>
+      </c>
+      <c r="S27">
+        <v>1.010473453525843</v>
+      </c>
+      <c r="T27">
+        <v>1.001706903246294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.014859137939484</v>
+      </c>
+      <c r="D28">
+        <v>1.001055077117654</v>
+      </c>
+      <c r="E28">
+        <v>1.059500844705148</v>
+      </c>
+      <c r="F28">
+        <v>0.9653229860953876</v>
+      </c>
+      <c r="G28">
+        <v>1.001055077117654</v>
+      </c>
+      <c r="H28">
+        <v>0.9461843958926811</v>
+      </c>
+      <c r="I28">
+        <v>1.020539806253167</v>
+      </c>
+      <c r="J28">
+        <v>0.9461843958926811</v>
+      </c>
+      <c r="K28">
+        <v>1.001055077117654</v>
+      </c>
+      <c r="L28">
+        <v>1.020539806253167</v>
+      </c>
+      <c r="M28">
+        <v>0.9833621010729243</v>
+      </c>
+      <c r="N28">
+        <v>0.9833621010729243</v>
+      </c>
+      <c r="O28">
+        <v>0.9773490627470788</v>
+      </c>
+      <c r="P28">
+        <v>0.9892597597545011</v>
+      </c>
+      <c r="Q28">
+        <v>0.9892597597545011</v>
+      </c>
+      <c r="R28">
+        <v>0.9922085890952894</v>
+      </c>
+      <c r="S28">
+        <v>0.9922085890952894</v>
+      </c>
+      <c r="T28">
+        <v>1.001243708000587</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.012412946523407</v>
+      </c>
+      <c r="D29">
+        <v>1.005481085326495</v>
+      </c>
+      <c r="E29">
+        <v>1.043370074782434</v>
+      </c>
+      <c r="F29">
+        <v>0.9716118351944067</v>
+      </c>
+      <c r="G29">
+        <v>1.005481085326495</v>
+      </c>
+      <c r="H29">
+        <v>0.953314685463902</v>
+      </c>
+      <c r="I29">
+        <v>1.015265554127479</v>
+      </c>
+      <c r="J29">
+        <v>0.953314685463902</v>
+      </c>
+      <c r="K29">
+        <v>1.005481085326495</v>
+      </c>
+      <c r="L29">
+        <v>1.015265554127479</v>
+      </c>
+      <c r="M29">
+        <v>0.9842901197956904</v>
+      </c>
+      <c r="N29">
+        <v>0.9842901197956904</v>
+      </c>
+      <c r="O29">
+        <v>0.9800640249285958</v>
+      </c>
+      <c r="P29">
+        <v>0.9913537749726252</v>
+      </c>
+      <c r="Q29">
+        <v>0.9913537749726252</v>
+      </c>
+      <c r="R29">
+        <v>0.9948856025610926</v>
+      </c>
+      <c r="S29">
+        <v>0.9948856025610926</v>
+      </c>
+      <c r="T29">
+        <v>1.000242696903021</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.007350941198851</v>
+      </c>
+      <c r="D30">
+        <v>1.014005700870737</v>
+      </c>
+      <c r="E30">
+        <v>1.010872108856179</v>
+      </c>
+      <c r="F30">
+        <v>0.9845432079430109</v>
+      </c>
+      <c r="G30">
+        <v>1.014005700870737</v>
+      </c>
+      <c r="H30">
+        <v>0.9683123617474433</v>
+      </c>
+      <c r="I30">
+        <v>1.004612354773488</v>
+      </c>
+      <c r="J30">
+        <v>0.9683123617474433</v>
+      </c>
+      <c r="K30">
+        <v>1.014005700870737</v>
+      </c>
+      <c r="L30">
+        <v>1.004612354773488</v>
+      </c>
+      <c r="M30">
+        <v>0.9864623582604655</v>
+      </c>
+      <c r="N30">
+        <v>0.9864623582604655</v>
+      </c>
+      <c r="O30">
+        <v>0.9858226414879806</v>
+      </c>
+      <c r="P30">
+        <v>0.9956434724638893</v>
+      </c>
+      <c r="Q30">
+        <v>0.9956434724638893</v>
+      </c>
+      <c r="R30">
+        <v>1.000234029565601</v>
+      </c>
+      <c r="S30">
+        <v>1.000234029565601</v>
+      </c>
+      <c r="T30">
+        <v>0.9982827792316181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.008555284570112</v>
+      </c>
+      <c r="D31">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="E31">
+        <v>1.010560338695662</v>
+      </c>
+      <c r="F31">
+        <v>0.9821573768608388</v>
+      </c>
+      <c r="G31">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="H31">
+        <v>0.9626025759582773</v>
+      </c>
+      <c r="I31">
+        <v>1.0046729209227</v>
+      </c>
+      <c r="J31">
+        <v>0.9626025759582773</v>
+      </c>
+      <c r="K31">
+        <v>1.017989432355697</v>
+      </c>
+      <c r="L31">
+        <v>1.0046729209227</v>
+      </c>
+      <c r="M31">
+        <v>0.9836377484404886</v>
+      </c>
+      <c r="N31">
+        <v>0.9836377484404886</v>
+      </c>
+      <c r="O31">
+        <v>0.983144291247272</v>
+      </c>
+      <c r="P31">
+        <v>0.9950883097455581</v>
+      </c>
+      <c r="Q31">
+        <v>0.9950883097455581</v>
+      </c>
+      <c r="R31">
+        <v>1.000813590398093</v>
+      </c>
+      <c r="S31">
+        <v>1.000813590398093</v>
+      </c>
+      <c r="T31">
+        <v>0.9977563215605479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.014238580821918</v>
+      </c>
+      <c r="D32">
+        <v>0.9933552183561645</v>
+      </c>
+      <c r="E32">
+        <v>1.067833660821918</v>
+      </c>
+      <c r="F32">
+        <v>0.9657278663013696</v>
+      </c>
+      <c r="G32">
+        <v>0.9933552183561645</v>
+      </c>
+      <c r="H32">
+        <v>0.9514463479452052</v>
+      </c>
+      <c r="I32">
+        <v>1.02283253739726</v>
+      </c>
+      <c r="J32">
+        <v>0.9514463479452052</v>
+      </c>
+      <c r="K32">
+        <v>0.9933552183561645</v>
+      </c>
+      <c r="L32">
+        <v>1.02283253739726</v>
+      </c>
+      <c r="M32">
+        <v>0.9871394426712328</v>
+      </c>
+      <c r="N32">
+        <v>0.9871394426712328</v>
+      </c>
+      <c r="O32">
+        <v>0.980002250547945</v>
+      </c>
+      <c r="P32">
+        <v>0.9892113678995433</v>
+      </c>
+      <c r="Q32">
+        <v>0.9892113678995433</v>
+      </c>
+      <c r="R32">
+        <v>0.9902473305136986</v>
+      </c>
+      <c r="S32">
+        <v>0.9902473305136986</v>
+      </c>
+      <c r="T32">
+        <v>1.002572368607306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9319329431578948</v>
+      </c>
+      <c r="D33">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="E33">
+        <v>0.7976590484210528</v>
+      </c>
+      <c r="F33">
+        <v>1.151169221052632</v>
+      </c>
+      <c r="G33">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="H33">
+        <v>1.267154015789474</v>
+      </c>
+      <c r="I33">
+        <v>0.9249589584210527</v>
+      </c>
+      <c r="J33">
+        <v>1.267154015789474</v>
+      </c>
+      <c r="K33">
+        <v>0.9488797357894737</v>
+      </c>
+      <c r="L33">
+        <v>0.9249589584210527</v>
+      </c>
+      <c r="M33">
+        <v>1.096056487105263</v>
+      </c>
+      <c r="N33">
+        <v>1.096056487105263</v>
+      </c>
+      <c r="O33">
+        <v>1.114427398421053</v>
+      </c>
+      <c r="P33">
+        <v>1.04699757</v>
+      </c>
+      <c r="Q33">
+        <v>1.04699757</v>
+      </c>
+      <c r="R33">
+        <v>1.022468111447369</v>
+      </c>
+      <c r="S33">
+        <v>1.022468111447369</v>
+      </c>
+      <c r="T33">
+        <v>1.00362565377193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.012420848421053</v>
+      </c>
+      <c r="D34">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="E34">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="F34">
+        <v>0.9699431852631579</v>
+      </c>
+      <c r="G34">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="H34">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="I34">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="J34">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="K34">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="L34">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="M34">
+        <v>0.9890651636842103</v>
+      </c>
+      <c r="N34">
+        <v>0.9890651636842103</v>
+      </c>
+      <c r="O34">
+        <v>0.9826911708771928</v>
+      </c>
+      <c r="P34">
+        <v>0.9906089171929823</v>
+      </c>
+      <c r="Q34">
+        <v>0.9906089171929824</v>
+      </c>
+      <c r="R34">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="S34">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="T34">
+        <v>1.002400018684211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.031277894179303</v>
+      </c>
+      <c r="D35">
+        <v>1.06956396383293</v>
+      </c>
+      <c r="E35">
+        <v>1.033533966906653</v>
+      </c>
+      <c r="F35">
+        <v>0.9352029637293842</v>
+      </c>
+      <c r="G35">
+        <v>1.06956396383293</v>
+      </c>
+      <c r="H35">
+        <v>0.8619257604103421</v>
+      </c>
+      <c r="I35">
+        <v>1.015522304936957</v>
+      </c>
+      <c r="J35">
+        <v>0.8619257604103421</v>
+      </c>
+      <c r="K35">
+        <v>1.06956396383293</v>
+      </c>
+      <c r="L35">
+        <v>1.015522304936957</v>
+      </c>
+      <c r="M35">
+        <v>0.9387240326736497</v>
+      </c>
+      <c r="N35">
+        <v>0.9387240326736497</v>
+      </c>
+      <c r="O35">
+        <v>0.9375503430255612</v>
+      </c>
+      <c r="P35">
+        <v>0.9823373430600763</v>
+      </c>
+      <c r="Q35">
+        <v>0.9823373430600763</v>
+      </c>
+      <c r="R35">
+        <v>1.00414399825329</v>
+      </c>
+      <c r="S35">
+        <v>1.00414399825329</v>
+      </c>
+      <c r="T35">
+        <v>0.991171142332595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000020260893065</v>
+      </c>
+      <c r="D36">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="E36">
+        <v>0.9997469584095989</v>
+      </c>
+      <c r="F36">
+        <v>0.9999851609839436</v>
+      </c>
+      <c r="G36">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="H36">
+        <v>0.9998332418998492</v>
+      </c>
+      <c r="I36">
+        <v>0.9999310172538318</v>
+      </c>
+      <c r="J36">
+        <v>0.9998332418998492</v>
+      </c>
+      <c r="K36">
+        <v>1.000237125500707</v>
+      </c>
+      <c r="L36">
+        <v>0.9999310172538318</v>
+      </c>
+      <c r="M36">
+        <v>0.9998821295768405</v>
+      </c>
+      <c r="N36">
+        <v>0.9998821295768405</v>
+      </c>
+      <c r="O36">
+        <v>0.9999164733792082</v>
+      </c>
+      <c r="P36">
+        <v>1.000000461551463</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000461551463</v>
+      </c>
+      <c r="R36">
+        <v>1.000059627538774</v>
+      </c>
+      <c r="S36">
+        <v>1.000059627538774</v>
+      </c>
+      <c r="T36">
+        <v>0.9999589608234993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000055206580793</v>
+      </c>
+      <c r="D37">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="E37">
+        <v>1.000435916883597</v>
+      </c>
+      <c r="F37">
+        <v>0.9998484609213367</v>
+      </c>
+      <c r="G37">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="H37">
+        <v>0.9998622518457062</v>
+      </c>
+      <c r="I37">
+        <v>1.000135822963761</v>
+      </c>
+      <c r="J37">
+        <v>0.9998622518457062</v>
+      </c>
+      <c r="K37">
+        <v>0.9998593098681134</v>
+      </c>
+      <c r="L37">
+        <v>1.000135822963761</v>
+      </c>
+      <c r="M37">
+        <v>0.9999990374047338</v>
+      </c>
+      <c r="N37">
+        <v>0.9999990374047338</v>
+      </c>
+      <c r="O37">
+        <v>0.9999488452436015</v>
+      </c>
+      <c r="P37">
+        <v>0.9999524615591936</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999524615591936</v>
+      </c>
+      <c r="R37">
+        <v>0.9999291736364235</v>
+      </c>
+      <c r="S37">
+        <v>0.9999291736364235</v>
+      </c>
+      <c r="T37">
+        <v>1.000032828177218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000273131772514</v>
+      </c>
+      <c r="D38">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="E38">
+        <v>1.000356941950763</v>
+      </c>
+      <c r="F38">
+        <v>0.9994362006208075</v>
+      </c>
+      <c r="G38">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="H38">
+        <v>0.998802507653988</v>
+      </c>
+      <c r="I38">
+        <v>1.00016691142617</v>
+      </c>
+      <c r="J38">
+        <v>0.998802507653988</v>
+      </c>
+      <c r="K38">
+        <v>1.000531232552579</v>
+      </c>
+      <c r="L38">
+        <v>1.00016691142617</v>
+      </c>
+      <c r="M38">
+        <v>0.9994847095400787</v>
+      </c>
+      <c r="N38">
+        <v>0.9994847095400787</v>
+      </c>
+      <c r="O38">
+        <v>0.9994685399003217</v>
+      </c>
+      <c r="P38">
+        <v>0.9998335505442454</v>
+      </c>
+      <c r="Q38">
+        <v>0.9998335505442455</v>
+      </c>
+      <c r="R38">
+        <v>1.000007971046329</v>
+      </c>
+      <c r="S38">
+        <v>1.000007971046329</v>
+      </c>
+      <c r="T38">
+        <v>0.999927820996137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.000679791663401</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.00174411269026</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000253750068274</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9986652031947066</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.00174411269026</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9968341955644374</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.00024179691183</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9968341955644374</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.00174411269026</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.00024179691183</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9985379962381336</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9985379962381336</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9985803985569913</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9996067017221755</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9996067017221755</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000141054464196</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000141054464196</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9997364750154848</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.005082476756109</v>
+      </c>
+      <c r="D40">
+        <v>1.011519720322913</v>
+      </c>
+      <c r="E40">
+        <v>1.00509893231041</v>
+      </c>
+      <c r="F40">
+        <v>0.9895130947718765</v>
+      </c>
+      <c r="G40">
+        <v>1.011519720322913</v>
+      </c>
+      <c r="H40">
+        <v>0.977456201485069</v>
+      </c>
+      <c r="I40">
+        <v>1.002433409195066</v>
+      </c>
+      <c r="J40">
+        <v>0.977456201485069</v>
+      </c>
+      <c r="K40">
+        <v>1.011519720322913</v>
+      </c>
+      <c r="L40">
+        <v>1.002433409195066</v>
+      </c>
+      <c r="M40">
+        <v>0.9899448053400672</v>
+      </c>
+      <c r="N40">
+        <v>0.9899448053400672</v>
+      </c>
+      <c r="O40">
+        <v>0.989800901817337</v>
+      </c>
+      <c r="P40">
+        <v>0.9971364436676827</v>
+      </c>
+      <c r="Q40">
+        <v>0.9971364436676827</v>
+      </c>
+      <c r="R40">
+        <v>1.00073226283149</v>
+      </c>
+      <c r="S40">
+        <v>1.00073226283149</v>
+      </c>
+      <c r="T40">
+        <v>0.9985173058069073</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.022742823887887</v>
+      </c>
+      <c r="D41">
+        <v>1.023127298697658</v>
+      </c>
+      <c r="E41">
+        <v>1.060076931478383</v>
+      </c>
+      <c r="F41">
+        <v>0.9500259670938366</v>
+      </c>
+      <c r="G41">
+        <v>1.023127298697658</v>
+      </c>
+      <c r="H41">
+        <v>0.9088636487975539</v>
+      </c>
+      <c r="I41">
+        <v>1.022584604662812</v>
+      </c>
+      <c r="J41">
+        <v>0.9088636487975539</v>
+      </c>
+      <c r="K41">
+        <v>1.023127298697658</v>
+      </c>
+      <c r="L41">
+        <v>1.022584604662812</v>
+      </c>
+      <c r="M41">
+        <v>0.9657241267301829</v>
+      </c>
+      <c r="N41">
+        <v>0.9657241267301829</v>
+      </c>
+      <c r="O41">
+        <v>0.9604914068514008</v>
+      </c>
+      <c r="P41">
+        <v>0.9848585173860078</v>
+      </c>
+      <c r="Q41">
+        <v>0.9848585173860078</v>
+      </c>
+      <c r="R41">
+        <v>0.9944257127139202</v>
+      </c>
+      <c r="S41">
+        <v>0.9944257127139202</v>
+      </c>
+      <c r="T41">
+        <v>0.9979035457696884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.031599066538157</v>
+      </c>
+      <c r="D42">
+        <v>1.03151372068859</v>
+      </c>
+      <c r="E42">
+        <v>1.08503801251232</v>
+      </c>
+      <c r="F42">
+        <v>0.9302843769556167</v>
+      </c>
+      <c r="G42">
+        <v>1.03151372068859</v>
+      </c>
+      <c r="H42">
+        <v>0.8739639363332317</v>
+      </c>
+      <c r="I42">
+        <v>1.031634196770331</v>
+      </c>
+      <c r="J42">
+        <v>0.8739639363332317</v>
+      </c>
+      <c r="K42">
+        <v>1.03151372068859</v>
+      </c>
+      <c r="L42">
+        <v>1.031634196770331</v>
+      </c>
+      <c r="M42">
+        <v>0.9527990665517813</v>
+      </c>
+      <c r="N42">
+        <v>0.9527990665517813</v>
+      </c>
+      <c r="O42">
+        <v>0.9452941700197264</v>
+      </c>
+      <c r="P42">
+        <v>0.9790372845973841</v>
+      </c>
+      <c r="Q42">
+        <v>0.9790372845973841</v>
+      </c>
+      <c r="R42">
+        <v>0.9921563936201855</v>
+      </c>
+      <c r="S42">
+        <v>0.9921563936201855</v>
+      </c>
+      <c r="T42">
+        <v>0.9973388849663744</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999407838510856</v>
+        <v>1.000018599871541</v>
       </c>
       <c r="D3">
-        <v>0.9973134401553432</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="E3">
-        <v>1.001089191760224</v>
+        <v>0.9998549405956716</v>
       </c>
       <c r="F3">
-        <v>0.9999407838510856</v>
+        <v>0.9999736050777578</v>
       </c>
       <c r="G3">
-        <v>1.003182513720308</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="H3">
-        <v>0.9982234467238364</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="I3">
-        <v>1.000754379497787</v>
+        <v>0.9999553389915542</v>
       </c>
       <c r="J3">
-        <v>0.9973134401553432</v>
+        <v>0.9998763468240673</v>
       </c>
       <c r="K3">
-        <v>0.9999407838510856</v>
+        <v>1.000172325160165</v>
       </c>
       <c r="L3">
-        <v>1.001089191760224</v>
+        <v>0.9999553389915542</v>
       </c>
       <c r="M3">
-        <v>0.9992013159577837</v>
+        <v>0.9999158429078108</v>
       </c>
       <c r="N3">
-        <v>0.9992013159577837</v>
+        <v>0.9999158429078108</v>
       </c>
       <c r="O3">
-        <v>0.998875359546468</v>
+        <v>0.9999350969644598</v>
       </c>
       <c r="P3">
-        <v>0.9994478052555511</v>
+        <v>1.000001336991929</v>
       </c>
       <c r="Q3">
-        <v>0.9994478052555511</v>
+        <v>1.000001336991929</v>
       </c>
       <c r="R3">
-        <v>0.9995710499044348</v>
+        <v>1.000044084033988</v>
       </c>
       <c r="S3">
-        <v>0.9995710499044348</v>
+        <v>1.000044084033988</v>
       </c>
       <c r="T3">
-        <v>1.000083959284764</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999751927534595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9998626105243392</v>
+        <v>1.005082476756109</v>
       </c>
       <c r="D4">
-        <v>0.9948234880996217</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="E4">
-        <v>1.002110686467543</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="F4">
-        <v>0.9998626105243392</v>
+        <v>0.9895130947718765</v>
       </c>
       <c r="G4">
-        <v>1.006166108757411</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="H4">
-        <v>0.9965714064400493</v>
+        <v>0.977456201485069</v>
       </c>
       <c r="I4">
-        <v>1.001455272443113</v>
+        <v>1.002433409195066</v>
       </c>
       <c r="J4">
-        <v>0.9948234880996217</v>
+        <v>0.977456201485069</v>
       </c>
       <c r="K4">
-        <v>0.9998626105243392</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="L4">
-        <v>1.002110686467543</v>
+        <v>1.002433409195066</v>
       </c>
       <c r="M4">
-        <v>0.9984670872835824</v>
+        <v>0.9899448053400672</v>
       </c>
       <c r="N4">
-        <v>0.9984670872835824</v>
+        <v>0.9899448053400672</v>
       </c>
       <c r="O4">
-        <v>0.9978351936690713</v>
+        <v>0.989800901817337</v>
       </c>
       <c r="P4">
-        <v>0.998932261697168</v>
+        <v>0.9971364436676827</v>
       </c>
       <c r="Q4">
-        <v>0.998932261697168</v>
+        <v>0.9971364436676827</v>
       </c>
       <c r="R4">
-        <v>0.9991648489039608</v>
+        <v>1.00073226283149</v>
       </c>
       <c r="S4">
-        <v>0.9991648489039608</v>
+        <v>1.00073226283149</v>
       </c>
       <c r="T4">
-        <v>1.00016492878868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9985173058069073</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9999506472500291</v>
+        <v>1.009132556599422</v>
       </c>
       <c r="D5">
-        <v>0.9899564656723986</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="E5">
-        <v>1.003975844578955</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="F5">
-        <v>0.9999506472500291</v>
+        <v>0.9806777285446679</v>
       </c>
       <c r="G5">
-        <v>1.011588130794782</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="H5">
-        <v>0.993421824569349</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="I5">
-        <v>1.002802328405436</v>
+        <v>1.006090920504322</v>
       </c>
       <c r="J5">
-        <v>0.9899564656723986</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="K5">
-        <v>0.9999506472500291</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="L5">
-        <v>1.003975844578955</v>
+        <v>1.006090920504322</v>
       </c>
       <c r="M5">
-        <v>0.996966155125677</v>
+        <v>0.9835340544164262</v>
       </c>
       <c r="N5">
-        <v>0.996966155125677</v>
+        <v>0.9835340544164262</v>
       </c>
       <c r="O5">
-        <v>0.995784711606901</v>
+        <v>0.9825819457925068</v>
       </c>
       <c r="P5">
-        <v>0.9979609858337944</v>
+        <v>0.9945306127905859</v>
       </c>
       <c r="Q5">
-        <v>0.9979609858337944</v>
+        <v>0.9945306127905859</v>
       </c>
       <c r="R5">
-        <v>0.9984584011878531</v>
+        <v>1.000028891977666</v>
       </c>
       <c r="S5">
-        <v>0.9984584011878531</v>
+        <v>1.000028891977666</v>
       </c>
       <c r="T5">
-        <v>1.000282540211825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.998024525464697</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000029305994281</v>
+        <v>1.031277894179303</v>
       </c>
       <c r="D6">
-        <v>0.9852068918964512</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="E6">
-        <v>1.005799116906693</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="F6">
-        <v>1.000029305994281</v>
+        <v>0.9352029637293842</v>
       </c>
       <c r="G6">
-        <v>1.016884936926356</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="H6">
-        <v>0.9903484604050866</v>
+        <v>0.8619257604103421</v>
       </c>
       <c r="I6">
-        <v>1.004116964224563</v>
+        <v>1.015522304936957</v>
       </c>
       <c r="J6">
-        <v>0.9852068918964512</v>
+        <v>0.8619257604103421</v>
       </c>
       <c r="K6">
-        <v>1.000029305994281</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="L6">
-        <v>1.005799116906693</v>
+        <v>1.015522304936957</v>
       </c>
       <c r="M6">
-        <v>0.9955030044015722</v>
+        <v>0.9387240326736497</v>
       </c>
       <c r="N6">
-        <v>0.9955030044015722</v>
+        <v>0.9387240326736497</v>
       </c>
       <c r="O6">
-        <v>0.9937848230694103</v>
+        <v>0.9375503430255612</v>
       </c>
       <c r="P6">
-        <v>0.9970117715991419</v>
+        <v>0.9823373430600763</v>
       </c>
       <c r="Q6">
-        <v>0.9970117715991419</v>
+        <v>0.9823373430600763</v>
       </c>
       <c r="R6">
-        <v>0.9977661551979267</v>
+        <v>1.00414399825329</v>
       </c>
       <c r="S6">
-        <v>0.9977661551979267</v>
+        <v>1.00414399825329</v>
       </c>
       <c r="T6">
-        <v>1.000397612725572</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.991171142332595</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000097256621646</v>
+        <v>1.000875397562814</v>
       </c>
       <c r="D7">
-        <v>0.9998628130148679</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="E7">
-        <v>1.000000438172581</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="F7">
-        <v>1.000097256621646</v>
+        <v>0.9979352897557129</v>
       </c>
       <c r="G7">
-        <v>0.9999884843727408</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="H7">
-        <v>0.9999437309581192</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="I7">
-        <v>1.000028664589867</v>
+        <v>1.001279195195088</v>
       </c>
       <c r="J7">
-        <v>0.9998628130148679</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="K7">
-        <v>1.000097256621646</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="L7">
-        <v>1.000000438172581</v>
+        <v>1.001279195195088</v>
       </c>
       <c r="M7">
-        <v>0.9999316255937246</v>
+        <v>0.9990864717760065</v>
       </c>
       <c r="N7">
-        <v>0.9999316255937246</v>
+        <v>0.9990864717760065</v>
       </c>
       <c r="O7">
-        <v>0.9999356607151895</v>
+        <v>0.9987027444359087</v>
       </c>
       <c r="P7">
-        <v>0.9999868359363649</v>
+        <v>0.9993557034067043</v>
       </c>
       <c r="Q7">
-        <v>0.9999868359363649</v>
+        <v>0.9993557034067043</v>
       </c>
       <c r="R7">
-        <v>1.000014441107685</v>
+        <v>0.9994903192220531</v>
       </c>
       <c r="S7">
-        <v>1.000014441107685</v>
+        <v>0.9994903192220531</v>
       </c>
       <c r="T7">
-        <v>0.9999868979549703</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000102773519747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000172325160165</v>
+        <v>1.000055206580793</v>
       </c>
       <c r="D8">
-        <v>0.9998763468240668</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="E8">
-        <v>0.9999553389915542</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="F8">
-        <v>1.000172325160165</v>
+        <v>0.9998484609213367</v>
       </c>
       <c r="G8">
-        <v>0.9998549405956717</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="H8">
-        <v>0.9999736050777573</v>
+        <v>0.9998622518457062</v>
       </c>
       <c r="I8">
-        <v>1.000018599871541</v>
+        <v>1.000135822963761</v>
       </c>
       <c r="J8">
-        <v>0.9998763468240668</v>
+        <v>0.9998622518457062</v>
       </c>
       <c r="K8">
-        <v>1.000172325160165</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="L8">
-        <v>0.9999553389915542</v>
+        <v>1.000135822963761</v>
       </c>
       <c r="M8">
-        <v>0.9999158429078105</v>
+        <v>0.9999990374047338</v>
       </c>
       <c r="N8">
-        <v>0.9999158429078105</v>
+        <v>0.9999990374047338</v>
       </c>
       <c r="O8">
-        <v>0.9999350969644595</v>
+        <v>0.9999488452436015</v>
       </c>
       <c r="P8">
-        <v>1.000001336991929</v>
+        <v>0.9999524615591936</v>
       </c>
       <c r="Q8">
-        <v>1.000001336991929</v>
+        <v>0.9999524615591936</v>
       </c>
       <c r="R8">
-        <v>1.000044084033988</v>
+        <v>0.9999291736364235</v>
       </c>
       <c r="S8">
-        <v>1.000044084033988</v>
+        <v>0.9999291736364235</v>
       </c>
       <c r="T8">
-        <v>0.9999751927534594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000032828177218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000092017773682</v>
+        <v>1.001455272443113</v>
       </c>
       <c r="D9">
-        <v>1.000245746394825</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="E9">
-        <v>0.9998577339844977</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="F9">
-        <v>1.000092017773682</v>
+        <v>0.9965714064400493</v>
       </c>
       <c r="G9">
-        <v>0.9995987428932059</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="H9">
-        <v>1.000176647688572</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="I9">
-        <v>0.9999260370378639</v>
+        <v>1.002110686467543</v>
       </c>
       <c r="J9">
-        <v>1.000245746394825</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="K9">
-        <v>1.000092017773682</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="L9">
-        <v>0.9998577339844977</v>
+        <v>1.002110686467543</v>
       </c>
       <c r="M9">
-        <v>1.000051740189661</v>
+        <v>0.9984670872835824</v>
       </c>
       <c r="N9">
-        <v>1.000051740189661</v>
+        <v>0.9984670872835824</v>
       </c>
       <c r="O9">
-        <v>1.000093376022631</v>
+        <v>0.9978351936690713</v>
       </c>
       <c r="P9">
-        <v>1.000065166051002</v>
+        <v>0.998932261697168</v>
       </c>
       <c r="Q9">
-        <v>1.000065166051002</v>
+        <v>0.998932261697168</v>
       </c>
       <c r="R9">
-        <v>1.000071878981672</v>
+        <v>0.9991648489039608</v>
       </c>
       <c r="S9">
-        <v>1.000071878981672</v>
+        <v>0.9991648489039608</v>
       </c>
       <c r="T9">
-        <v>0.9999828209621078</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.00016492878868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000349468785367</v>
+        <v>1.031779720190079</v>
       </c>
       <c r="D10">
-        <v>1.000140988502879</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="E10">
-        <v>0.9997604394699503</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="F10">
-        <v>1.000349468785367</v>
+        <v>0.9342061939631023</v>
       </c>
       <c r="G10">
-        <v>0.999297417029522</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="H10">
-        <v>1.000186746078138</v>
+        <v>0.8595405382161821</v>
       </c>
       <c r="I10">
-        <v>0.9999321680097619</v>
+        <v>1.015519000956498</v>
       </c>
       <c r="J10">
-        <v>1.000140988502879</v>
+        <v>0.8595405382161821</v>
       </c>
       <c r="K10">
-        <v>1.000349468785367</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="L10">
-        <v>0.9997604394699503</v>
+        <v>1.015519000956498</v>
       </c>
       <c r="M10">
-        <v>0.9999507139864148</v>
+        <v>0.9375297695863403</v>
       </c>
       <c r="N10">
-        <v>0.9999507139864148</v>
+        <v>0.9375297695863403</v>
       </c>
       <c r="O10">
-        <v>1.000029391350323</v>
+        <v>0.9364219110452611</v>
       </c>
       <c r="P10">
-        <v>1.000083632252732</v>
+        <v>0.9821175977997266</v>
       </c>
       <c r="Q10">
-        <v>1.000083632252732</v>
+        <v>0.9821175977997267</v>
       </c>
       <c r="R10">
-        <v>1.000150091385891</v>
+        <v>1.00441151190642</v>
       </c>
       <c r="S10">
-        <v>1.000150091385891</v>
+        <v>1.00441151190642</v>
       </c>
       <c r="T10">
-        <v>0.9999445379792699</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9909478729460069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000230600643486</v>
+        <v>1.031787589097077</v>
       </c>
       <c r="D11">
-        <v>1.001198526200765</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="E11">
-        <v>0.9994229713965666</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="F11">
-        <v>1.000230600643486</v>
+        <v>0.9307379066975807</v>
       </c>
       <c r="G11">
-        <v>0.9983957496122602</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="H11">
-        <v>1.000796652139727</v>
+        <v>0.8707353459223337</v>
       </c>
       <c r="I11">
-        <v>0.9996584310695216</v>
+        <v>1.029291852469156</v>
       </c>
       <c r="J11">
-        <v>1.001198526200765</v>
+        <v>0.8707353459223337</v>
       </c>
       <c r="K11">
-        <v>1.000230600643486</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="L11">
-        <v>0.9994229713965666</v>
+        <v>1.029291852469156</v>
       </c>
       <c r="M11">
-        <v>1.000310748798666</v>
+        <v>0.9500135991957449</v>
       </c>
       <c r="N11">
-        <v>1.000310748798666</v>
+        <v>0.9500135991957449</v>
       </c>
       <c r="O11">
-        <v>1.000472716579019</v>
+        <v>0.9435883683630234</v>
       </c>
       <c r="P11">
-        <v>1.000284032746939</v>
+        <v>0.9792931459981017</v>
       </c>
       <c r="Q11">
-        <v>1.000284032746939</v>
+        <v>0.9792931459981017</v>
       </c>
       <c r="R11">
-        <v>1.000270674721076</v>
+        <v>0.9939329193992801</v>
       </c>
       <c r="S11">
-        <v>1.000270674721076</v>
+        <v>0.9939329193992801</v>
       </c>
       <c r="T11">
-        <v>0.9999504885103878</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9961916250663109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9985390216161666</v>
+        <v>1.010576130526315</v>
       </c>
       <c r="D12">
-        <v>0.9948998809505066</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="E12">
-        <v>1.002520573470641</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="F12">
-        <v>0.9985390216161666</v>
+        <v>0.9779532218736838</v>
       </c>
       <c r="G12">
-        <v>1.006068376289979</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="H12">
-        <v>0.9970636620381402</v>
+        <v>0.9537437993894713</v>
       </c>
       <c r="I12">
-        <v>1.001359776493563</v>
+        <v>1.005758654336842</v>
       </c>
       <c r="J12">
-        <v>0.9948998809505066</v>
+        <v>0.9537437993894713</v>
       </c>
       <c r="K12">
-        <v>0.9985390216161666</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="L12">
-        <v>1.002520573470641</v>
+        <v>1.005758654336842</v>
       </c>
       <c r="M12">
-        <v>0.9987102272105739</v>
+        <v>0.9797512268631565</v>
       </c>
       <c r="N12">
-        <v>0.9987102272105739</v>
+        <v>0.9797512268631565</v>
       </c>
       <c r="O12">
-        <v>0.998161372153096</v>
+        <v>0.9791518918666656</v>
       </c>
       <c r="P12">
-        <v>0.9986531586791049</v>
+        <v>0.9939283483263143</v>
       </c>
       <c r="Q12">
-        <v>0.9986531586791049</v>
+        <v>0.9939283483263143</v>
       </c>
       <c r="R12">
-        <v>0.9986246244133703</v>
+        <v>1.001016909057893</v>
       </c>
       <c r="S12">
-        <v>0.9986246244133703</v>
+        <v>1.001016909057893</v>
       </c>
       <c r="T12">
-        <v>1.000075215143166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9972152482122797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002150129736611</v>
+        <v>0.9941564854337634</v>
       </c>
       <c r="D13">
-        <v>0.9988911172967686</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="E13">
-        <v>0.9995739654508983</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="F13">
-        <v>1.002150129736611</v>
+        <v>1.012653990366012</v>
       </c>
       <c r="G13">
-        <v>1.000107663060356</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="H13">
-        <v>0.9990153688385859</v>
+        <v>1.023868500365388</v>
       </c>
       <c r="I13">
-        <v>1.000325035774882</v>
+        <v>0.994530066122603</v>
       </c>
       <c r="J13">
-        <v>0.9988911172967686</v>
+        <v>1.023868500365388</v>
       </c>
       <c r="K13">
-        <v>1.002150129736611</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="L13">
-        <v>0.9995739654508983</v>
+        <v>0.994530066122603</v>
       </c>
       <c r="M13">
-        <v>0.9992325413738334</v>
+        <v>1.009199283243995</v>
       </c>
       <c r="N13">
-        <v>0.9992325413738334</v>
+        <v>1.009199283243995</v>
       </c>
       <c r="O13">
-        <v>0.999160150528751</v>
+        <v>1.010350852284668</v>
       </c>
       <c r="P13">
-        <v>1.000205070828093</v>
+        <v>1.0038824143542</v>
       </c>
       <c r="Q13">
-        <v>1.000205070828093</v>
+        <v>1.0038824143542</v>
       </c>
       <c r="R13">
-        <v>1.000691335555222</v>
+        <v>1.001223979909303</v>
       </c>
       <c r="S13">
-        <v>1.000691335555222</v>
+        <v>1.001223979909303</v>
       </c>
       <c r="T13">
-        <v>1.000010546693017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000738621558011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8489902940146983</v>
+        <v>1.055010199999999</v>
       </c>
       <c r="D14">
-        <v>1.548079765550479</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="E14">
-        <v>0.8710206287832202</v>
+        <v>1.055856</v>
       </c>
       <c r="F14">
-        <v>0.8489902940146983</v>
+        <v>0.886270420000001</v>
       </c>
       <c r="G14">
-        <v>0.6616320149711334</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="H14">
-        <v>1.295572467635066</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="I14">
-        <v>0.8645977896334297</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="J14">
-        <v>1.548079765550479</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="K14">
-        <v>0.8489902940146983</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="L14">
-        <v>0.8710206287832202</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="M14">
-        <v>1.20955019716685</v>
+        <v>0.8913281499999997</v>
       </c>
       <c r="N14">
-        <v>1.20955019716685</v>
+        <v>0.8913281499999997</v>
       </c>
       <c r="O14">
-        <v>1.238224287322922</v>
+        <v>0.8896422400000001</v>
       </c>
       <c r="P14">
-        <v>1.089363562782799</v>
+        <v>0.9691563999999996</v>
       </c>
       <c r="Q14">
-        <v>1.089363562782799</v>
+        <v>0.9691563999999996</v>
       </c>
       <c r="R14">
-        <v>1.029270245590774</v>
+        <v>1.008070524999999</v>
       </c>
       <c r="S14">
-        <v>1.029270245590774</v>
+        <v>1.008070524999999</v>
       </c>
       <c r="T14">
-        <v>1.014982160098004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9841009699999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9711561553077607</v>
+        <v>0.79454768</v>
       </c>
       <c r="D15">
-        <v>1.137269315054173</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="E15">
-        <v>0.9623121884336756</v>
+        <v>0.5123396</v>
       </c>
       <c r="F15">
-        <v>0.9711561553077607</v>
+        <v>1.445007</v>
       </c>
       <c r="G15">
-        <v>0.8961192061560384</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H15">
-        <v>1.078493950850909</v>
+        <v>1.8399756</v>
       </c>
       <c r="I15">
-        <v>0.9648906036752073</v>
+        <v>0.81025805</v>
       </c>
       <c r="J15">
-        <v>1.137269315054173</v>
+        <v>1.8399756</v>
       </c>
       <c r="K15">
-        <v>0.9711561553077607</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="L15">
-        <v>0.9623121884336756</v>
+        <v>0.81025805</v>
       </c>
       <c r="M15">
-        <v>1.049790751743924</v>
+        <v>1.325116825</v>
       </c>
       <c r="N15">
-        <v>1.049790751743924</v>
+        <v>1.325116825</v>
       </c>
       <c r="O15">
-        <v>1.059358484779586</v>
+        <v>1.365080216666666</v>
       </c>
       <c r="P15">
-        <v>1.023579219598536</v>
+        <v>1.13553505</v>
       </c>
       <c r="Q15">
-        <v>1.023579219598536</v>
+        <v>1.13553505</v>
       </c>
       <c r="R15">
-        <v>1.010473453525843</v>
+        <v>1.0407441625</v>
       </c>
       <c r="S15">
-        <v>1.010473453525843</v>
+        <v>1.0407441625</v>
       </c>
       <c r="T15">
-        <v>1.001706903246294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.026416571666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000237125500707</v>
+        <v>1.0550102</v>
       </c>
       <c r="D16">
-        <v>0.9998332418998492</v>
+        <v>1.1248129</v>
       </c>
       <c r="E16">
-        <v>0.9999310172538315</v>
+        <v>1.055856</v>
       </c>
       <c r="F16">
-        <v>1.000237125500707</v>
+        <v>0.88627042</v>
       </c>
       <c r="G16">
-        <v>0.9997469584095989</v>
+        <v>1.1248129</v>
       </c>
       <c r="H16">
-        <v>0.9999851609839436</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="I16">
-        <v>1.000020260893065</v>
+        <v>1.0262848</v>
       </c>
       <c r="J16">
-        <v>0.9998332418998492</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K16">
-        <v>1.000237125500707</v>
+        <v>1.1248129</v>
       </c>
       <c r="L16">
-        <v>0.9999310172538315</v>
+        <v>1.0262848</v>
       </c>
       <c r="M16">
-        <v>0.9998821295768403</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N16">
-        <v>0.9998821295768403</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O16">
-        <v>0.9999164733792081</v>
+        <v>0.88964224</v>
       </c>
       <c r="P16">
-        <v>1.000000461551463</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q16">
-        <v>1.000000461551463</v>
+        <v>0.9691564</v>
       </c>
       <c r="R16">
-        <v>1.000059627538774</v>
+        <v>1.008070525</v>
       </c>
       <c r="S16">
-        <v>1.000059627538774</v>
+        <v>1.008070525</v>
       </c>
       <c r="T16">
-        <v>0.9999589608234992</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998593098681134</v>
+        <v>0.86013788</v>
       </c>
       <c r="D17">
-        <v>0.9998622518457062</v>
+        <v>0.84625205</v>
       </c>
       <c r="E17">
-        <v>1.000135822963761</v>
+        <v>0.64704416</v>
       </c>
       <c r="F17">
-        <v>0.9998593098681134</v>
+        <v>1.3056935</v>
       </c>
       <c r="G17">
-        <v>1.000435916883597</v>
+        <v>0.84625205</v>
       </c>
       <c r="H17">
-        <v>0.9998484609213367</v>
+        <v>1.5651105</v>
       </c>
       <c r="I17">
-        <v>1.000055206580793</v>
+        <v>0.8658522200000001</v>
       </c>
       <c r="J17">
-        <v>0.9998622518457062</v>
+        <v>1.5651105</v>
       </c>
       <c r="K17">
-        <v>0.9998593098681134</v>
+        <v>0.84625205</v>
       </c>
       <c r="L17">
-        <v>1.000135822963761</v>
+        <v>0.8658522200000001</v>
       </c>
       <c r="M17">
-        <v>0.9999990374047338</v>
+        <v>1.21548136</v>
       </c>
       <c r="N17">
-        <v>0.9999990374047338</v>
+        <v>1.21548136</v>
       </c>
       <c r="O17">
-        <v>0.9999488452436015</v>
+        <v>1.245552073333333</v>
       </c>
       <c r="P17">
-        <v>0.9999524615591936</v>
+        <v>1.092404923333333</v>
       </c>
       <c r="Q17">
-        <v>0.9999524615591936</v>
+        <v>1.092404923333333</v>
       </c>
       <c r="R17">
-        <v>0.9999291736364235</v>
+        <v>1.030866705</v>
       </c>
       <c r="S17">
-        <v>0.9999291736364235</v>
+        <v>1.030866705</v>
       </c>
       <c r="T17">
-        <v>1.000032828177218</v>
+        <v>1.015015051666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000531232552579</v>
+        <v>1.014238580821918</v>
       </c>
       <c r="D18">
-        <v>0.9988025076539878</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="E18">
-        <v>1.00016691142617</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="F18">
-        <v>1.000531232552579</v>
+        <v>0.9657278663013696</v>
       </c>
       <c r="G18">
-        <v>1.000356941950763</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="H18">
-        <v>0.9994362006208075</v>
+        <v>0.9514463479452052</v>
       </c>
       <c r="I18">
-        <v>1.000273131772514</v>
+        <v>1.02283253739726</v>
       </c>
       <c r="J18">
-        <v>0.9988025076539878</v>
+        <v>0.9514463479452052</v>
       </c>
       <c r="K18">
-        <v>1.000531232552579</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="L18">
-        <v>1.00016691142617</v>
+        <v>1.02283253739726</v>
       </c>
       <c r="M18">
-        <v>0.9994847095400787</v>
+        <v>0.9871394426712328</v>
       </c>
       <c r="N18">
-        <v>0.9994847095400787</v>
+        <v>0.9871394426712328</v>
       </c>
       <c r="O18">
-        <v>0.9994685399003217</v>
+        <v>0.980002250547945</v>
       </c>
       <c r="P18">
-        <v>0.9998335505442455</v>
+        <v>0.9892113678995433</v>
       </c>
       <c r="Q18">
-        <v>0.9998335505442455</v>
+        <v>0.9892113678995433</v>
       </c>
       <c r="R18">
-        <v>1.000007971046329</v>
+        <v>0.9902473305136986</v>
       </c>
       <c r="S18">
-        <v>1.000007971046329</v>
+        <v>0.9902473305136986</v>
       </c>
       <c r="T18">
-        <v>0.999927820996137</v>
+        <v>1.002572368607306</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00174411269026</v>
+        <v>0.9319329431578948</v>
       </c>
       <c r="D19">
-        <v>0.9968341955644374</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="E19">
-        <v>1.00024179691183</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="F19">
-        <v>1.00174411269026</v>
+        <v>1.151169221052632</v>
       </c>
       <c r="G19">
-        <v>1.000253750068274</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="H19">
-        <v>0.9986652031947066</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="I19">
-        <v>1.000679791663401</v>
+        <v>0.9249589584210527</v>
       </c>
       <c r="J19">
-        <v>0.9968341955644374</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="K19">
-        <v>1.00174411269026</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="L19">
-        <v>1.00024179691183</v>
+        <v>0.9249589584210527</v>
       </c>
       <c r="M19">
-        <v>0.9985379962381336</v>
+        <v>1.096056487105263</v>
       </c>
       <c r="N19">
-        <v>0.9985379962381336</v>
+        <v>1.096056487105263</v>
       </c>
       <c r="O19">
-        <v>0.9985803985569913</v>
+        <v>1.114427398421053</v>
       </c>
       <c r="P19">
-        <v>0.9996067017221755</v>
+        <v>1.04699757</v>
       </c>
       <c r="Q19">
-        <v>0.9996067017221755</v>
+        <v>1.04699757</v>
       </c>
       <c r="R19">
-        <v>1.000141054464196</v>
+        <v>1.022468111447369</v>
       </c>
       <c r="S19">
-        <v>1.000141054464196</v>
+        <v>1.022468111447369</v>
       </c>
       <c r="T19">
-        <v>0.9997364750154848</v>
+        <v>1.00362565377193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.012420848421053</v>
+      </c>
+      <c r="D20">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="E20">
+        <v>1.060209326842105</v>
+      </c>
+      <c r="F20">
+        <v>0.9699431852631579</v>
+      </c>
+      <c r="G20">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="H20">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="I20">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="J20">
+        <v>0.9580039736842104</v>
+      </c>
+      <c r="K20">
+        <v>0.9936964242105264</v>
+      </c>
+      <c r="L20">
+        <v>1.02012635368421</v>
+      </c>
+      <c r="M20">
+        <v>0.9890651636842103</v>
+      </c>
+      <c r="N20">
+        <v>0.9890651636842103</v>
+      </c>
+      <c r="O20">
+        <v>0.9826911708771928</v>
+      </c>
+      <c r="P20">
+        <v>0.9906089171929823</v>
+      </c>
+      <c r="Q20">
+        <v>0.9906089171929824</v>
+      </c>
+      <c r="R20">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="S20">
+        <v>0.9913807939473684</v>
+      </c>
+      <c r="T20">
+        <v>1.002400018684211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.8645977896334297</v>
+      </c>
+      <c r="D21">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="E21">
+        <v>0.6616320149711334</v>
+      </c>
+      <c r="F21">
+        <v>1.295572467635066</v>
+      </c>
+      <c r="G21">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="H21">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="I21">
+        <v>0.8710206287832202</v>
+      </c>
+      <c r="J21">
+        <v>1.548079765550479</v>
+      </c>
+      <c r="K21">
+        <v>0.8489902940146983</v>
+      </c>
+      <c r="L21">
+        <v>0.8710206287832202</v>
+      </c>
+      <c r="M21">
+        <v>1.20955019716685</v>
+      </c>
+      <c r="N21">
+        <v>1.20955019716685</v>
+      </c>
+      <c r="O21">
+        <v>1.238224287322922</v>
+      </c>
+      <c r="P21">
+        <v>1.089363562782799</v>
+      </c>
+      <c r="Q21">
+        <v>1.089363562782799</v>
+      </c>
+      <c r="R21">
+        <v>1.029270245590774</v>
+      </c>
+      <c r="S21">
+        <v>1.029270245590774</v>
+      </c>
+      <c r="T21">
+        <v>1.014982160098004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9648906036752073</v>
+      </c>
+      <c r="D22">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="E22">
+        <v>0.8961192061560384</v>
+      </c>
+      <c r="F22">
+        <v>1.078493950850909</v>
+      </c>
+      <c r="G22">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="H22">
+        <v>1.137269315054173</v>
+      </c>
+      <c r="I22">
+        <v>0.9623121884336756</v>
+      </c>
+      <c r="J22">
+        <v>1.137269315054173</v>
+      </c>
+      <c r="K22">
+        <v>0.9711561553077607</v>
+      </c>
+      <c r="L22">
+        <v>0.9623121884336756</v>
+      </c>
+      <c r="M22">
+        <v>1.049790751743924</v>
+      </c>
+      <c r="N22">
+        <v>1.049790751743924</v>
+      </c>
+      <c r="O22">
+        <v>1.059358484779586</v>
+      </c>
+      <c r="P22">
+        <v>1.023579219598536</v>
+      </c>
+      <c r="Q22">
+        <v>1.023579219598536</v>
+      </c>
+      <c r="R22">
+        <v>1.010473453525843</v>
+      </c>
+      <c r="S22">
+        <v>1.010473453525843</v>
+      </c>
+      <c r="T22">
+        <v>1.001706903246294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001359776493563</v>
+      </c>
+      <c r="D23">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="E23">
+        <v>1.006068376289979</v>
+      </c>
+      <c r="F23">
+        <v>0.9970636620381401</v>
+      </c>
+      <c r="G23">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="H23">
+        <v>0.9948998809505066</v>
+      </c>
+      <c r="I23">
+        <v>1.002520573470641</v>
+      </c>
+      <c r="J23">
+        <v>0.9948998809505066</v>
+      </c>
+      <c r="K23">
+        <v>0.9985390216161666</v>
+      </c>
+      <c r="L23">
+        <v>1.002520573470641</v>
+      </c>
+      <c r="M23">
+        <v>0.9987102272105739</v>
+      </c>
+      <c r="N23">
+        <v>0.9987102272105739</v>
+      </c>
+      <c r="O23">
+        <v>0.998161372153096</v>
+      </c>
+      <c r="P23">
+        <v>0.9986531586791049</v>
+      </c>
+      <c r="Q23">
+        <v>0.9986531586791049</v>
+      </c>
+      <c r="R23">
+        <v>0.9986246244133703</v>
+      </c>
+      <c r="S23">
+        <v>0.9986246244133703</v>
+      </c>
+      <c r="T23">
+        <v>1.000075215143166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000325035774882</v>
+      </c>
+      <c r="D24">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="E24">
+        <v>1.000107663060356</v>
+      </c>
+      <c r="F24">
+        <v>0.9990153688385858</v>
+      </c>
+      <c r="G24">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="H24">
+        <v>0.9988911172967686</v>
+      </c>
+      <c r="I24">
+        <v>0.9995739654508983</v>
+      </c>
+      <c r="J24">
+        <v>0.9988911172967686</v>
+      </c>
+      <c r="K24">
+        <v>1.002150129736611</v>
+      </c>
+      <c r="L24">
+        <v>0.9995739654508983</v>
+      </c>
+      <c r="M24">
+        <v>0.9992325413738334</v>
+      </c>
+      <c r="N24">
+        <v>0.9992325413738334</v>
+      </c>
+      <c r="O24">
+        <v>0.999160150528751</v>
+      </c>
+      <c r="P24">
+        <v>1.000205070828093</v>
+      </c>
+      <c r="Q24">
+        <v>1.000205070828093</v>
+      </c>
+      <c r="R24">
+        <v>1.000691335555222</v>
+      </c>
+      <c r="S24">
+        <v>1.000691335555222</v>
+      </c>
+      <c r="T24">
+        <v>1.000010546693017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.101757282267054</v>
+      </c>
+      <c r="D25">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="E25">
+        <v>1.328982962628722</v>
+      </c>
+      <c r="F25">
+        <v>0.7707925705384401</v>
+      </c>
+      <c r="G25">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="H25">
+        <v>0.6087752629102897</v>
+      </c>
+      <c r="I25">
+        <v>1.118876613314101</v>
+      </c>
+      <c r="J25">
+        <v>0.6087752629102897</v>
+      </c>
+      <c r="K25">
+        <v>1.060157332243438</v>
+      </c>
+      <c r="L25">
+        <v>1.118876613314101</v>
+      </c>
+      <c r="M25">
+        <v>0.8638259381121953</v>
+      </c>
+      <c r="N25">
+        <v>0.8638259381121953</v>
+      </c>
+      <c r="O25">
+        <v>0.8328148155876103</v>
+      </c>
+      <c r="P25">
+        <v>0.9292697361559427</v>
+      </c>
+      <c r="Q25">
+        <v>0.9292697361559429</v>
+      </c>
+      <c r="R25">
+        <v>0.9619916351778166</v>
+      </c>
+      <c r="S25">
+        <v>0.9619916351778166</v>
+      </c>
+      <c r="T25">
+        <v>0.9982236706503408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.029501459234324</v>
+      </c>
+      <c r="D26">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="E26">
+        <v>1.054272234625513</v>
+      </c>
+      <c r="F26">
+        <v>0.9374779605329293</v>
+      </c>
+      <c r="G26">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="H26">
+        <v>0.8751624151924474</v>
+      </c>
+      <c r="I26">
+        <v>1.022439094449975</v>
+      </c>
+      <c r="J26">
+        <v>0.8751624151924474</v>
+      </c>
+      <c r="K26">
+        <v>1.046662981219421</v>
+      </c>
+      <c r="L26">
+        <v>1.022439094449975</v>
+      </c>
+      <c r="M26">
+        <v>0.9488007548212114</v>
+      </c>
+      <c r="N26">
+        <v>0.9488007548212114</v>
+      </c>
+      <c r="O26">
+        <v>0.9450264900584507</v>
+      </c>
+      <c r="P26">
+        <v>0.9814214969539479</v>
+      </c>
+      <c r="Q26">
+        <v>0.981421496953948</v>
+      </c>
+      <c r="R26">
+        <v>0.9977318680203162</v>
+      </c>
+      <c r="S26">
+        <v>0.9977318680203162</v>
+      </c>
+      <c r="T26">
+        <v>0.9942526908757684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.002920020244579</v>
+      </c>
+      <c r="D27">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="E27">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="F27">
+        <v>0.9934602645621569</v>
+      </c>
+      <c r="G27">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="H27">
+        <v>0.988783609356974</v>
+      </c>
+      <c r="I27">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="J27">
+        <v>0.988783609356974</v>
+      </c>
+      <c r="K27">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="L27">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="M27">
+        <v>0.996199023120059</v>
+      </c>
+      <c r="N27">
+        <v>0.996199023120059</v>
+      </c>
+      <c r="O27">
+        <v>0.9952861036007583</v>
+      </c>
+      <c r="P27">
+        <v>0.997876889569063</v>
+      </c>
+      <c r="Q27">
+        <v>0.997876889569063</v>
+      </c>
+      <c r="R27">
+        <v>0.9987158227935649</v>
+      </c>
+      <c r="S27">
+        <v>0.9987158227935649</v>
+      </c>
+      <c r="T27">
+        <v>0.9999634522644517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.996445806957625</v>
+      </c>
+      <c r="D28">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="E28">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="F28">
+        <v>1.006948309567444</v>
+      </c>
+      <c r="G28">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="H28">
+        <v>1.016888167018523</v>
+      </c>
+      <c r="I28">
+        <v>0.9994885432086125</v>
+      </c>
+      <c r="J28">
+        <v>1.016888167018523</v>
+      </c>
+      <c r="K28">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="L28">
+        <v>0.9994885432086125</v>
+      </c>
+      <c r="M28">
+        <v>1.008188355113568</v>
+      </c>
+      <c r="N28">
+        <v>1.008188355113568</v>
+      </c>
+      <c r="O28">
+        <v>1.007775006598193</v>
+      </c>
+      <c r="P28">
+        <v>1.001809537269203</v>
+      </c>
+      <c r="Q28">
+        <v>1.001809537269203</v>
+      </c>
+      <c r="R28">
+        <v>0.9986201283470213</v>
+      </c>
+      <c r="S28">
+        <v>0.9986201283470213</v>
+      </c>
+      <c r="T28">
+        <v>1.001552091467153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9857138018848111</v>
+      </c>
+      <c r="D29">
+        <v>0.9731460358580927</v>
+      </c>
+      <c r="E29">
+        <v>0.9807563861481579</v>
+      </c>
+      <c r="F29">
+        <v>1.029405217740803</v>
+      </c>
+      <c r="G29">
+        <v>0.9731460358580927</v>
+      </c>
+      <c r="H29">
+        <v>1.062640662584481</v>
+      </c>
+      <c r="I29">
+        <v>0.9908856899009137</v>
+      </c>
+      <c r="J29">
+        <v>1.062640662584481</v>
+      </c>
+      <c r="K29">
+        <v>0.9731460358580927</v>
+      </c>
+      <c r="L29">
+        <v>0.9908856899009137</v>
+      </c>
+      <c r="M29">
+        <v>1.026763176242697</v>
+      </c>
+      <c r="N29">
+        <v>1.026763176242697</v>
+      </c>
+      <c r="O29">
+        <v>1.027643856742066</v>
+      </c>
+      <c r="P29">
+        <v>1.008890796114496</v>
+      </c>
+      <c r="Q29">
+        <v>1.008890796114496</v>
+      </c>
+      <c r="R29">
+        <v>0.999954606050395</v>
+      </c>
+      <c r="S29">
+        <v>0.999954606050395</v>
+      </c>
+      <c r="T29">
+        <v>1.00375796568621</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005082476756109</v>
+        <v>1.008707004485107</v>
       </c>
       <c r="D4">
-        <v>1.011519720322913</v>
+        <v>1.015672225810816</v>
       </c>
       <c r="E4">
-        <v>1.00509893231041</v>
+        <v>1.014033140182033</v>
       </c>
       <c r="F4">
-        <v>0.9895130947718765</v>
+        <v>0.9816068622636928</v>
       </c>
       <c r="G4">
-        <v>1.011519720322913</v>
+        <v>1.015672225810816</v>
       </c>
       <c r="H4">
-        <v>0.977456201485069</v>
+        <v>0.9627576361178829</v>
       </c>
       <c r="I4">
-        <v>1.002433409195066</v>
+        <v>1.005840657983691</v>
       </c>
       <c r="J4">
-        <v>0.977456201485069</v>
+        <v>0.9627576361178829</v>
       </c>
       <c r="K4">
-        <v>1.011519720322913</v>
+        <v>1.015672225810816</v>
       </c>
       <c r="L4">
-        <v>1.002433409195066</v>
+        <v>1.005840657983691</v>
       </c>
       <c r="M4">
-        <v>0.9899448053400672</v>
+        <v>0.9842991470507868</v>
       </c>
       <c r="N4">
-        <v>0.9899448053400672</v>
+        <v>0.9842991470507868</v>
       </c>
       <c r="O4">
-        <v>0.989800901817337</v>
+        <v>0.9834017187884222</v>
       </c>
       <c r="P4">
-        <v>0.9971364436676827</v>
+        <v>0.9947568399707967</v>
       </c>
       <c r="Q4">
-        <v>0.9971364436676827</v>
+        <v>0.9947568399707967</v>
       </c>
       <c r="R4">
-        <v>1.00073226283149</v>
+        <v>0.9999856864308017</v>
       </c>
       <c r="S4">
-        <v>1.00073226283149</v>
+        <v>0.9999856864308017</v>
       </c>
       <c r="T4">
-        <v>0.9985173058069073</v>
+        <v>0.9981029211405371</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.009132556599422</v>
+        <v>1.014159143809161</v>
       </c>
       <c r="D5">
-        <v>1.016523729538905</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="E5">
-        <v>1.014745029272334</v>
+        <v>1.073221630243332</v>
       </c>
       <c r="F5">
-        <v>0.9806777285446679</v>
+        <v>0.9654424210287603</v>
       </c>
       <c r="G5">
-        <v>1.016523729538905</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="H5">
-        <v>0.9609771883285302</v>
+        <v>0.9532306849605919</v>
       </c>
       <c r="I5">
-        <v>1.006090920504322</v>
+        <v>1.024507468359565</v>
       </c>
       <c r="J5">
-        <v>0.9609771883285302</v>
+        <v>0.9532306849605919</v>
       </c>
       <c r="K5">
-        <v>1.016523729538905</v>
+        <v>0.9890126615316255</v>
       </c>
       <c r="L5">
-        <v>1.006090920504322</v>
+        <v>1.024507468359565</v>
       </c>
       <c r="M5">
-        <v>0.9835340544164262</v>
+        <v>0.9888690766600785</v>
       </c>
       <c r="N5">
-        <v>0.9835340544164262</v>
+        <v>0.9888690766600785</v>
       </c>
       <c r="O5">
-        <v>0.9825819457925068</v>
+        <v>0.9810601914496391</v>
       </c>
       <c r="P5">
-        <v>0.9945306127905859</v>
+        <v>0.9889169382839276</v>
       </c>
       <c r="Q5">
-        <v>0.9945306127905859</v>
+        <v>0.9889169382839276</v>
       </c>
       <c r="R5">
-        <v>1.000028891977666</v>
+        <v>0.9889408690958521</v>
       </c>
       <c r="S5">
-        <v>1.000028891977666</v>
+        <v>0.9889408690958521</v>
       </c>
       <c r="T5">
-        <v>0.998024525464697</v>
+        <v>1.003262334988839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.031277894179303</v>
+        <v>1.005082476756109</v>
       </c>
       <c r="D6">
-        <v>1.06956396383293</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="E6">
-        <v>1.033533966906653</v>
+        <v>1.00509893231041</v>
       </c>
       <c r="F6">
-        <v>0.9352029637293842</v>
+        <v>0.9895130947718765</v>
       </c>
       <c r="G6">
-        <v>1.06956396383293</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="H6">
-        <v>0.8619257604103421</v>
+        <v>0.977456201485069</v>
       </c>
       <c r="I6">
-        <v>1.015522304936957</v>
+        <v>1.002433409195066</v>
       </c>
       <c r="J6">
-        <v>0.8619257604103421</v>
+        <v>0.977456201485069</v>
       </c>
       <c r="K6">
-        <v>1.06956396383293</v>
+        <v>1.011519720322913</v>
       </c>
       <c r="L6">
-        <v>1.015522304936957</v>
+        <v>1.002433409195066</v>
       </c>
       <c r="M6">
-        <v>0.9387240326736497</v>
+        <v>0.9899448053400672</v>
       </c>
       <c r="N6">
-        <v>0.9387240326736497</v>
+        <v>0.9899448053400672</v>
       </c>
       <c r="O6">
-        <v>0.9375503430255612</v>
+        <v>0.989800901817337</v>
       </c>
       <c r="P6">
-        <v>0.9823373430600763</v>
+        <v>0.9971364436676827</v>
       </c>
       <c r="Q6">
-        <v>0.9823373430600763</v>
+        <v>0.9971364436676827</v>
       </c>
       <c r="R6">
-        <v>1.00414399825329</v>
+        <v>1.00073226283149</v>
       </c>
       <c r="S6">
-        <v>1.00414399825329</v>
+        <v>1.00073226283149</v>
       </c>
       <c r="T6">
-        <v>0.991171142332595</v>
+        <v>0.9985173058069073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000875397562814</v>
+        <v>1.009132556599422</v>
       </c>
       <c r="D7">
-        <v>0.9998941666680996</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="E7">
-        <v>1.003738843579841</v>
+        <v>1.014745029272334</v>
       </c>
       <c r="F7">
-        <v>0.9979352897557129</v>
+        <v>0.9806777285446679</v>
       </c>
       <c r="G7">
-        <v>0.9998941666680996</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="H7">
-        <v>0.9968937483569253</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="I7">
-        <v>1.001279195195088</v>
+        <v>1.006090920504322</v>
       </c>
       <c r="J7">
-        <v>0.9968937483569253</v>
+        <v>0.9609771883285302</v>
       </c>
       <c r="K7">
-        <v>0.9998941666680996</v>
+        <v>1.016523729538905</v>
       </c>
       <c r="L7">
-        <v>1.001279195195088</v>
+        <v>1.006090920504322</v>
       </c>
       <c r="M7">
-        <v>0.9990864717760065</v>
+        <v>0.9835340544164262</v>
       </c>
       <c r="N7">
-        <v>0.9990864717760065</v>
+        <v>0.9835340544164262</v>
       </c>
       <c r="O7">
-        <v>0.9987027444359087</v>
+        <v>0.9825819457925068</v>
       </c>
       <c r="P7">
-        <v>0.9993557034067043</v>
+        <v>0.9945306127905859</v>
       </c>
       <c r="Q7">
-        <v>0.9993557034067043</v>
+        <v>0.9945306127905859</v>
       </c>
       <c r="R7">
-        <v>0.9994903192220531</v>
+        <v>1.000028891977666</v>
       </c>
       <c r="S7">
-        <v>0.9994903192220531</v>
+        <v>1.000028891977666</v>
       </c>
       <c r="T7">
-        <v>1.000102773519747</v>
+        <v>0.998024525464697</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000055206580793</v>
+        <v>1.031277894179303</v>
       </c>
       <c r="D8">
-        <v>0.9998593098681134</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="E8">
-        <v>1.000435916883597</v>
+        <v>1.033533966906653</v>
       </c>
       <c r="F8">
-        <v>0.9998484609213367</v>
+        <v>0.9352029637293842</v>
       </c>
       <c r="G8">
-        <v>0.9998593098681134</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="H8">
-        <v>0.9998622518457062</v>
+        <v>0.8619257604103421</v>
       </c>
       <c r="I8">
-        <v>1.000135822963761</v>
+        <v>1.015522304936957</v>
       </c>
       <c r="J8">
-        <v>0.9998622518457062</v>
+        <v>0.8619257604103421</v>
       </c>
       <c r="K8">
-        <v>0.9998593098681134</v>
+        <v>1.06956396383293</v>
       </c>
       <c r="L8">
-        <v>1.000135822963761</v>
+        <v>1.015522304936957</v>
       </c>
       <c r="M8">
-        <v>0.9999990374047338</v>
+        <v>0.9387240326736497</v>
       </c>
       <c r="N8">
-        <v>0.9999990374047338</v>
+        <v>0.9387240326736497</v>
       </c>
       <c r="O8">
-        <v>0.9999488452436015</v>
+        <v>0.9375503430255612</v>
       </c>
       <c r="P8">
-        <v>0.9999524615591936</v>
+        <v>0.9823373430600763</v>
       </c>
       <c r="Q8">
-        <v>0.9999524615591936</v>
+        <v>0.9823373430600763</v>
       </c>
       <c r="R8">
-        <v>0.9999291736364235</v>
+        <v>1.00414399825329</v>
       </c>
       <c r="S8">
-        <v>0.9999291736364235</v>
+        <v>1.00414399825329</v>
       </c>
       <c r="T8">
-        <v>1.000032828177218</v>
+        <v>0.991171142332595</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.001455272443113</v>
+        <v>1.000875397562814</v>
       </c>
       <c r="D9">
-        <v>0.9998626105243392</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="E9">
-        <v>1.006166108757411</v>
+        <v>1.003738843579841</v>
       </c>
       <c r="F9">
-        <v>0.9965714064400493</v>
+        <v>0.9979352897557129</v>
       </c>
       <c r="G9">
-        <v>0.9998626105243392</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="H9">
-        <v>0.9948234880996217</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="I9">
-        <v>1.002110686467543</v>
+        <v>1.001279195195088</v>
       </c>
       <c r="J9">
-        <v>0.9948234880996217</v>
+        <v>0.9968937483569253</v>
       </c>
       <c r="K9">
-        <v>0.9998626105243392</v>
+        <v>0.9998941666680996</v>
       </c>
       <c r="L9">
-        <v>1.002110686467543</v>
+        <v>1.001279195195088</v>
       </c>
       <c r="M9">
-        <v>0.9984670872835824</v>
+        <v>0.9990864717760065</v>
       </c>
       <c r="N9">
-        <v>0.9984670872835824</v>
+        <v>0.9990864717760065</v>
       </c>
       <c r="O9">
-        <v>0.9978351936690713</v>
+        <v>0.9987027444359087</v>
       </c>
       <c r="P9">
-        <v>0.998932261697168</v>
+        <v>0.9993557034067043</v>
       </c>
       <c r="Q9">
-        <v>0.998932261697168</v>
+        <v>0.9993557034067043</v>
       </c>
       <c r="R9">
-        <v>0.9991648489039608</v>
+        <v>0.9994903192220531</v>
       </c>
       <c r="S9">
-        <v>0.9991648489039608</v>
+        <v>0.9994903192220531</v>
       </c>
       <c r="T9">
-        <v>1.00016492878868</v>
+        <v>1.000102773519747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.031779720190079</v>
+        <v>1.000055206580793</v>
       </c>
       <c r="D10">
-        <v>1.071293254226499</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="E10">
-        <v>1.033348530123681</v>
+        <v>1.000435916883597</v>
       </c>
       <c r="F10">
-        <v>0.9342061939631023</v>
+        <v>0.9998484609213367</v>
       </c>
       <c r="G10">
-        <v>1.071293254226499</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="H10">
-        <v>0.8595405382161821</v>
+        <v>0.9998622518457062</v>
       </c>
       <c r="I10">
-        <v>1.015519000956498</v>
+        <v>1.000135822963761</v>
       </c>
       <c r="J10">
-        <v>0.8595405382161821</v>
+        <v>0.9998622518457062</v>
       </c>
       <c r="K10">
-        <v>1.071293254226499</v>
+        <v>0.9998593098681134</v>
       </c>
       <c r="L10">
-        <v>1.015519000956498</v>
+        <v>1.000135822963761</v>
       </c>
       <c r="M10">
-        <v>0.9375297695863403</v>
+        <v>0.9999990374047338</v>
       </c>
       <c r="N10">
-        <v>0.9375297695863403</v>
+        <v>0.9999990374047338</v>
       </c>
       <c r="O10">
-        <v>0.9364219110452611</v>
+        <v>0.9999488452436015</v>
       </c>
       <c r="P10">
-        <v>0.9821175977997266</v>
+        <v>0.9999524615591936</v>
       </c>
       <c r="Q10">
-        <v>0.9821175977997267</v>
+        <v>0.9999524615591936</v>
       </c>
       <c r="R10">
-        <v>1.00441151190642</v>
+        <v>0.9999291736364235</v>
       </c>
       <c r="S10">
-        <v>1.00441151190642</v>
+        <v>0.9999291736364235</v>
       </c>
       <c r="T10">
-        <v>0.9909478729460069</v>
+        <v>1.000032828177218</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.031787589097077</v>
+        <v>1.001455272443113</v>
       </c>
       <c r="D11">
-        <v>1.037852239602815</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="E11">
-        <v>1.076744816608904</v>
+        <v>1.006166108757411</v>
       </c>
       <c r="F11">
-        <v>0.9307379066975807</v>
+        <v>0.9965714064400493</v>
       </c>
       <c r="G11">
-        <v>1.037852239602815</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="H11">
-        <v>0.8707353459223337</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="I11">
-        <v>1.029291852469156</v>
+        <v>1.002110686467543</v>
       </c>
       <c r="J11">
-        <v>0.8707353459223337</v>
+        <v>0.9948234880996217</v>
       </c>
       <c r="K11">
-        <v>1.037852239602815</v>
+        <v>0.9998626105243392</v>
       </c>
       <c r="L11">
-        <v>1.029291852469156</v>
+        <v>1.002110686467543</v>
       </c>
       <c r="M11">
-        <v>0.9500135991957449</v>
+        <v>0.9984670872835824</v>
       </c>
       <c r="N11">
-        <v>0.9500135991957449</v>
+        <v>0.9984670872835824</v>
       </c>
       <c r="O11">
-        <v>0.9435883683630234</v>
+        <v>0.9978351936690713</v>
       </c>
       <c r="P11">
-        <v>0.9792931459981017</v>
+        <v>0.998932261697168</v>
       </c>
       <c r="Q11">
-        <v>0.9792931459981017</v>
+        <v>0.998932261697168</v>
       </c>
       <c r="R11">
-        <v>0.9939329193992801</v>
+        <v>0.9991648489039608</v>
       </c>
       <c r="S11">
-        <v>0.9939329193992801</v>
+        <v>0.9991648489039608</v>
       </c>
       <c r="T11">
-        <v>0.9961916250663109</v>
+        <v>1.00016492878868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.010576130526315</v>
+        <v>1.031779720190079</v>
       </c>
       <c r="D12">
-        <v>1.022282591252629</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="E12">
-        <v>1.012977091894737</v>
+        <v>1.033348530123681</v>
       </c>
       <c r="F12">
-        <v>0.9779532218736838</v>
+        <v>0.9342061939631023</v>
       </c>
       <c r="G12">
-        <v>1.022282591252629</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="H12">
-        <v>0.9537437993894713</v>
+        <v>0.8595405382161821</v>
       </c>
       <c r="I12">
-        <v>1.005758654336842</v>
+        <v>1.015519000956498</v>
       </c>
       <c r="J12">
-        <v>0.9537437993894713</v>
+        <v>0.8595405382161821</v>
       </c>
       <c r="K12">
-        <v>1.022282591252629</v>
+        <v>1.071293254226499</v>
       </c>
       <c r="L12">
-        <v>1.005758654336842</v>
+        <v>1.015519000956498</v>
       </c>
       <c r="M12">
-        <v>0.9797512268631565</v>
+        <v>0.9375297695863403</v>
       </c>
       <c r="N12">
-        <v>0.9797512268631565</v>
+        <v>0.9375297695863403</v>
       </c>
       <c r="O12">
-        <v>0.9791518918666656</v>
+        <v>0.9364219110452611</v>
       </c>
       <c r="P12">
-        <v>0.9939283483263143</v>
+        <v>0.9821175977997266</v>
       </c>
       <c r="Q12">
-        <v>0.9939283483263143</v>
+        <v>0.9821175977997267</v>
       </c>
       <c r="R12">
-        <v>1.001016909057893</v>
+        <v>1.00441151190642</v>
       </c>
       <c r="S12">
-        <v>1.001016909057893</v>
+        <v>1.00441151190642</v>
       </c>
       <c r="T12">
-        <v>0.9972152482122797</v>
+        <v>0.9909478729460069</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9941564854337634</v>
+        <v>1.031787589097077</v>
       </c>
       <c r="D13">
-        <v>0.9932486765746102</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="E13">
-        <v>0.9859740104856882</v>
+        <v>1.076744816608904</v>
       </c>
       <c r="F13">
-        <v>1.012653990366012</v>
+        <v>0.9307379066975807</v>
       </c>
       <c r="G13">
-        <v>0.9932486765746102</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="H13">
-        <v>1.023868500365388</v>
+        <v>0.8707353459223337</v>
       </c>
       <c r="I13">
-        <v>0.994530066122603</v>
+        <v>1.029291852469156</v>
       </c>
       <c r="J13">
-        <v>1.023868500365388</v>
+        <v>0.8707353459223337</v>
       </c>
       <c r="K13">
-        <v>0.9932486765746102</v>
+        <v>1.037852239602815</v>
       </c>
       <c r="L13">
-        <v>0.994530066122603</v>
+        <v>1.029291852469156</v>
       </c>
       <c r="M13">
-        <v>1.009199283243995</v>
+        <v>0.9500135991957449</v>
       </c>
       <c r="N13">
-        <v>1.009199283243995</v>
+        <v>0.9500135991957449</v>
       </c>
       <c r="O13">
-        <v>1.010350852284668</v>
+        <v>0.9435883683630234</v>
       </c>
       <c r="P13">
-        <v>1.0038824143542</v>
+        <v>0.9792931459981017</v>
       </c>
       <c r="Q13">
-        <v>1.0038824143542</v>
+        <v>0.9792931459981017</v>
       </c>
       <c r="R13">
-        <v>1.001223979909303</v>
+        <v>0.9939329193992801</v>
       </c>
       <c r="S13">
-        <v>1.001223979909303</v>
+        <v>0.9939329193992801</v>
       </c>
       <c r="T13">
-        <v>1.000738621558011</v>
+        <v>0.9961916250663109</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.055010199999999</v>
+        <v>1.010576130526315</v>
       </c>
       <c r="D14">
-        <v>1.124812899999999</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="E14">
-        <v>1.055856</v>
+        <v>1.012977091894737</v>
       </c>
       <c r="F14">
-        <v>0.886270420000001</v>
+        <v>0.9779532218736838</v>
       </c>
       <c r="G14">
-        <v>1.124812899999999</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="H14">
-        <v>0.7563715000000001</v>
+        <v>0.9537437993894713</v>
       </c>
       <c r="I14">
-        <v>1.026284799999999</v>
+        <v>1.005758654336842</v>
       </c>
       <c r="J14">
-        <v>0.7563715000000001</v>
+        <v>0.9537437993894713</v>
       </c>
       <c r="K14">
-        <v>1.124812899999999</v>
+        <v>1.022282591252629</v>
       </c>
       <c r="L14">
-        <v>1.026284799999999</v>
+        <v>1.005758654336842</v>
       </c>
       <c r="M14">
-        <v>0.8913281499999997</v>
+        <v>0.9797512268631565</v>
       </c>
       <c r="N14">
-        <v>0.8913281499999997</v>
+        <v>0.9797512268631565</v>
       </c>
       <c r="O14">
-        <v>0.8896422400000001</v>
+        <v>0.9791518918666656</v>
       </c>
       <c r="P14">
-        <v>0.9691563999999996</v>
+        <v>0.9939283483263143</v>
       </c>
       <c r="Q14">
-        <v>0.9691563999999996</v>
+        <v>0.9939283483263143</v>
       </c>
       <c r="R14">
-        <v>1.008070524999999</v>
+        <v>1.001016909057893</v>
       </c>
       <c r="S14">
-        <v>1.008070524999999</v>
+        <v>1.001016909057893</v>
       </c>
       <c r="T14">
-        <v>0.9841009699999997</v>
+        <v>0.9972152482122797</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.79454768</v>
+        <v>0.9941564854337634</v>
       </c>
       <c r="D15">
-        <v>0.7563714999999999</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="E15">
-        <v>0.5123396</v>
+        <v>0.9859740104856882</v>
       </c>
       <c r="F15">
-        <v>1.445007</v>
+        <v>1.012653990366012</v>
       </c>
       <c r="G15">
-        <v>0.7563714999999999</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="H15">
-        <v>1.8399756</v>
+        <v>1.023868500365388</v>
       </c>
       <c r="I15">
-        <v>0.81025805</v>
+        <v>0.994530066122603</v>
       </c>
       <c r="J15">
-        <v>1.8399756</v>
+        <v>1.023868500365388</v>
       </c>
       <c r="K15">
-        <v>0.7563714999999999</v>
+        <v>0.9932486765746102</v>
       </c>
       <c r="L15">
-        <v>0.81025805</v>
+        <v>0.994530066122603</v>
       </c>
       <c r="M15">
-        <v>1.325116825</v>
+        <v>1.009199283243995</v>
       </c>
       <c r="N15">
-        <v>1.325116825</v>
+        <v>1.009199283243995</v>
       </c>
       <c r="O15">
-        <v>1.365080216666666</v>
+        <v>1.010350852284668</v>
       </c>
       <c r="P15">
-        <v>1.13553505</v>
+        <v>1.0038824143542</v>
       </c>
       <c r="Q15">
-        <v>1.13553505</v>
+        <v>1.0038824143542</v>
       </c>
       <c r="R15">
-        <v>1.0407441625</v>
+        <v>1.001223979909303</v>
       </c>
       <c r="S15">
-        <v>1.0407441625</v>
+        <v>1.001223979909303</v>
       </c>
       <c r="T15">
-        <v>1.026416571666666</v>
+        <v>1.000738621558011</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0550102</v>
+        <v>1.055010199999999</v>
       </c>
       <c r="D16">
-        <v>1.1248129</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="E16">
         <v>1.055856</v>
       </c>
       <c r="F16">
-        <v>0.88627042</v>
+        <v>0.886270420000001</v>
       </c>
       <c r="G16">
-        <v>1.1248129</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="H16">
-        <v>0.7563714999999999</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="I16">
-        <v>1.0262848</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="J16">
-        <v>0.7563714999999999</v>
+        <v>0.7563715000000001</v>
       </c>
       <c r="K16">
-        <v>1.1248129</v>
+        <v>1.124812899999999</v>
       </c>
       <c r="L16">
-        <v>1.0262848</v>
+        <v>1.026284799999999</v>
       </c>
       <c r="M16">
-        <v>0.8913281499999999</v>
+        <v>0.8913281499999997</v>
       </c>
       <c r="N16">
-        <v>0.8913281499999999</v>
+        <v>0.8913281499999997</v>
       </c>
       <c r="O16">
-        <v>0.88964224</v>
+        <v>0.8896422400000001</v>
       </c>
       <c r="P16">
-        <v>0.9691563999999998</v>
+        <v>0.9691563999999996</v>
       </c>
       <c r="Q16">
-        <v>0.9691564</v>
+        <v>0.9691563999999996</v>
       </c>
       <c r="R16">
-        <v>1.008070525</v>
+        <v>1.008070524999999</v>
       </c>
       <c r="S16">
-        <v>1.008070525</v>
+        <v>1.008070524999999</v>
       </c>
       <c r="T16">
-        <v>0.9841009700000001</v>
+        <v>0.9841009699999997</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.86013788</v>
+        <v>0.79454768</v>
       </c>
       <c r="D17">
-        <v>0.84625205</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="E17">
-        <v>0.64704416</v>
+        <v>0.5123396</v>
       </c>
       <c r="F17">
-        <v>1.3056935</v>
+        <v>1.445007</v>
       </c>
       <c r="G17">
-        <v>0.84625205</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H17">
-        <v>1.5651105</v>
+        <v>1.8399756</v>
       </c>
       <c r="I17">
-        <v>0.8658522200000001</v>
+        <v>0.81025805</v>
       </c>
       <c r="J17">
-        <v>1.5651105</v>
+        <v>1.8399756</v>
       </c>
       <c r="K17">
-        <v>0.84625205</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="L17">
-        <v>0.8658522200000001</v>
+        <v>0.81025805</v>
       </c>
       <c r="M17">
-        <v>1.21548136</v>
+        <v>1.325116825</v>
       </c>
       <c r="N17">
-        <v>1.21548136</v>
+        <v>1.325116825</v>
       </c>
       <c r="O17">
-        <v>1.245552073333333</v>
+        <v>1.365080216666666</v>
       </c>
       <c r="P17">
-        <v>1.092404923333333</v>
+        <v>1.13553505</v>
       </c>
       <c r="Q17">
-        <v>1.092404923333333</v>
+        <v>1.13553505</v>
       </c>
       <c r="R17">
-        <v>1.030866705</v>
+        <v>1.0407441625</v>
       </c>
       <c r="S17">
-        <v>1.030866705</v>
+        <v>1.0407441625</v>
       </c>
       <c r="T17">
-        <v>1.015015051666667</v>
+        <v>1.026416571666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.014238580821918</v>
+        <v>1.0550102</v>
       </c>
       <c r="D18">
-        <v>0.9933552183561645</v>
+        <v>1.1248129</v>
       </c>
       <c r="E18">
-        <v>1.067833660821918</v>
+        <v>1.055856</v>
       </c>
       <c r="F18">
-        <v>0.9657278663013696</v>
+        <v>0.88627042</v>
       </c>
       <c r="G18">
-        <v>0.9933552183561645</v>
+        <v>1.1248129</v>
       </c>
       <c r="H18">
-        <v>0.9514463479452052</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="I18">
-        <v>1.02283253739726</v>
+        <v>1.0262848</v>
       </c>
       <c r="J18">
-        <v>0.9514463479452052</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="K18">
-        <v>0.9933552183561645</v>
+        <v>1.1248129</v>
       </c>
       <c r="L18">
-        <v>1.02283253739726</v>
+        <v>1.0262848</v>
       </c>
       <c r="M18">
-        <v>0.9871394426712328</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N18">
-        <v>0.9871394426712328</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O18">
-        <v>0.980002250547945</v>
+        <v>0.88964224</v>
       </c>
       <c r="P18">
-        <v>0.9892113678995433</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q18">
-        <v>0.9892113678995433</v>
+        <v>0.9691564</v>
       </c>
       <c r="R18">
-        <v>0.9902473305136986</v>
+        <v>1.008070525</v>
       </c>
       <c r="S18">
-        <v>0.9902473305136986</v>
+        <v>1.008070525</v>
       </c>
       <c r="T18">
-        <v>1.002572368607306</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9319329431578948</v>
+        <v>0.86013788</v>
       </c>
       <c r="D19">
-        <v>0.9488797357894737</v>
+        <v>0.84625205</v>
       </c>
       <c r="E19">
-        <v>0.7976590484210528</v>
+        <v>0.64704416</v>
       </c>
       <c r="F19">
-        <v>1.151169221052632</v>
+        <v>1.3056935</v>
       </c>
       <c r="G19">
-        <v>0.9488797357894737</v>
+        <v>0.84625205</v>
       </c>
       <c r="H19">
-        <v>1.267154015789474</v>
+        <v>1.5651105</v>
       </c>
       <c r="I19">
-        <v>0.9249589584210527</v>
+        <v>0.8658522200000001</v>
       </c>
       <c r="J19">
-        <v>1.267154015789474</v>
+        <v>1.5651105</v>
       </c>
       <c r="K19">
-        <v>0.9488797357894737</v>
+        <v>0.84625205</v>
       </c>
       <c r="L19">
-        <v>0.9249589584210527</v>
+        <v>0.8658522200000001</v>
       </c>
       <c r="M19">
-        <v>1.096056487105263</v>
+        <v>1.21548136</v>
       </c>
       <c r="N19">
-        <v>1.096056487105263</v>
+        <v>1.21548136</v>
       </c>
       <c r="O19">
-        <v>1.114427398421053</v>
+        <v>1.245552073333333</v>
       </c>
       <c r="P19">
-        <v>1.04699757</v>
+        <v>1.092404923333333</v>
       </c>
       <c r="Q19">
-        <v>1.04699757</v>
+        <v>1.092404923333333</v>
       </c>
       <c r="R19">
-        <v>1.022468111447369</v>
+        <v>1.030866705</v>
       </c>
       <c r="S19">
-        <v>1.022468111447369</v>
+        <v>1.030866705</v>
       </c>
       <c r="T19">
-        <v>1.00362565377193</v>
+        <v>1.015015051666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.012420848421053</v>
+        <v>1.014238580821918</v>
       </c>
       <c r="D20">
-        <v>0.9936964242105264</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="E20">
-        <v>1.060209326842105</v>
+        <v>1.067833660821918</v>
       </c>
       <c r="F20">
-        <v>0.9699431852631579</v>
+        <v>0.9657278663013696</v>
       </c>
       <c r="G20">
-        <v>0.9936964242105264</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="H20">
-        <v>0.9580039736842104</v>
+        <v>0.9514463479452052</v>
       </c>
       <c r="I20">
-        <v>1.02012635368421</v>
+        <v>1.02283253739726</v>
       </c>
       <c r="J20">
-        <v>0.9580039736842104</v>
+        <v>0.9514463479452052</v>
       </c>
       <c r="K20">
-        <v>0.9936964242105264</v>
+        <v>0.9933552183561645</v>
       </c>
       <c r="L20">
-        <v>1.02012635368421</v>
+        <v>1.02283253739726</v>
       </c>
       <c r="M20">
-        <v>0.9890651636842103</v>
+        <v>0.9871394426712328</v>
       </c>
       <c r="N20">
-        <v>0.9890651636842103</v>
+        <v>0.9871394426712328</v>
       </c>
       <c r="O20">
-        <v>0.9826911708771928</v>
+        <v>0.980002250547945</v>
       </c>
       <c r="P20">
-        <v>0.9906089171929823</v>
+        <v>0.9892113678995433</v>
       </c>
       <c r="Q20">
-        <v>0.9906089171929824</v>
+        <v>0.9892113678995433</v>
       </c>
       <c r="R20">
-        <v>0.9913807939473684</v>
+        <v>0.9902473305136986</v>
       </c>
       <c r="S20">
-        <v>0.9913807939473684</v>
+        <v>0.9902473305136986</v>
       </c>
       <c r="T20">
-        <v>1.002400018684211</v>
+        <v>1.002572368607306</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8645977896334297</v>
+        <v>0.9319329431578948</v>
       </c>
       <c r="D21">
-        <v>0.8489902940146983</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="E21">
-        <v>0.6616320149711334</v>
+        <v>0.7976590484210528</v>
       </c>
       <c r="F21">
-        <v>1.295572467635066</v>
+        <v>1.151169221052632</v>
       </c>
       <c r="G21">
-        <v>0.8489902940146983</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="H21">
-        <v>1.548079765550479</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="I21">
-        <v>0.8710206287832202</v>
+        <v>0.9249589584210527</v>
       </c>
       <c r="J21">
-        <v>1.548079765550479</v>
+        <v>1.267154015789474</v>
       </c>
       <c r="K21">
-        <v>0.8489902940146983</v>
+        <v>0.9488797357894737</v>
       </c>
       <c r="L21">
-        <v>0.8710206287832202</v>
+        <v>0.9249589584210527</v>
       </c>
       <c r="M21">
-        <v>1.20955019716685</v>
+        <v>1.096056487105263</v>
       </c>
       <c r="N21">
-        <v>1.20955019716685</v>
+        <v>1.096056487105263</v>
       </c>
       <c r="O21">
-        <v>1.238224287322922</v>
+        <v>1.114427398421053</v>
       </c>
       <c r="P21">
-        <v>1.089363562782799</v>
+        <v>1.04699757</v>
       </c>
       <c r="Q21">
-        <v>1.089363562782799</v>
+        <v>1.04699757</v>
       </c>
       <c r="R21">
-        <v>1.029270245590774</v>
+        <v>1.022468111447369</v>
       </c>
       <c r="S21">
-        <v>1.029270245590774</v>
+        <v>1.022468111447369</v>
       </c>
       <c r="T21">
-        <v>1.014982160098004</v>
+        <v>1.00362565377193</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9648906036752073</v>
+        <v>1.012420848421053</v>
       </c>
       <c r="D22">
-        <v>0.9711561553077607</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="E22">
-        <v>0.8961192061560384</v>
+        <v>1.060209326842105</v>
       </c>
       <c r="F22">
-        <v>1.078493950850909</v>
+        <v>0.9699431852631579</v>
       </c>
       <c r="G22">
-        <v>0.9711561553077607</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="H22">
-        <v>1.137269315054173</v>
+        <v>0.9580039736842104</v>
       </c>
       <c r="I22">
-        <v>0.9623121884336756</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="J22">
-        <v>1.137269315054173</v>
+        <v>0.9580039736842104</v>
       </c>
       <c r="K22">
-        <v>0.9711561553077607</v>
+        <v>0.9936964242105264</v>
       </c>
       <c r="L22">
-        <v>0.9623121884336756</v>
+        <v>1.02012635368421</v>
       </c>
       <c r="M22">
-        <v>1.049790751743924</v>
+        <v>0.9890651636842103</v>
       </c>
       <c r="N22">
-        <v>1.049790751743924</v>
+        <v>0.9890651636842103</v>
       </c>
       <c r="O22">
-        <v>1.059358484779586</v>
+        <v>0.9826911708771928</v>
       </c>
       <c r="P22">
-        <v>1.023579219598536</v>
+        <v>0.9906089171929823</v>
       </c>
       <c r="Q22">
-        <v>1.023579219598536</v>
+        <v>0.9906089171929824</v>
       </c>
       <c r="R22">
-        <v>1.010473453525843</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="S22">
-        <v>1.010473453525843</v>
+        <v>0.9913807939473684</v>
       </c>
       <c r="T22">
-        <v>1.001706903246294</v>
+        <v>1.002400018684211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.001359776493563</v>
+        <v>0.8645977896334297</v>
       </c>
       <c r="D23">
-        <v>0.9985390216161666</v>
+        <v>0.8489902940146983</v>
       </c>
       <c r="E23">
-        <v>1.006068376289979</v>
+        <v>0.6616320149711334</v>
       </c>
       <c r="F23">
-        <v>0.9970636620381401</v>
+        <v>1.295572467635066</v>
       </c>
       <c r="G23">
-        <v>0.9985390216161666</v>
+        <v>0.8489902940146983</v>
       </c>
       <c r="H23">
-        <v>0.9948998809505066</v>
+        <v>1.548079765550479</v>
       </c>
       <c r="I23">
-        <v>1.002520573470641</v>
+        <v>0.8710206287832202</v>
       </c>
       <c r="J23">
-        <v>0.9948998809505066</v>
+        <v>1.548079765550479</v>
       </c>
       <c r="K23">
-        <v>0.9985390216161666</v>
+        <v>0.8489902940146983</v>
       </c>
       <c r="L23">
-        <v>1.002520573470641</v>
+        <v>0.8710206287832202</v>
       </c>
       <c r="M23">
-        <v>0.9987102272105739</v>
+        <v>1.20955019716685</v>
       </c>
       <c r="N23">
-        <v>0.9987102272105739</v>
+        <v>1.20955019716685</v>
       </c>
       <c r="O23">
-        <v>0.998161372153096</v>
+        <v>1.238224287322922</v>
       </c>
       <c r="P23">
-        <v>0.9986531586791049</v>
+        <v>1.089363562782799</v>
       </c>
       <c r="Q23">
-        <v>0.9986531586791049</v>
+        <v>1.089363562782799</v>
       </c>
       <c r="R23">
-        <v>0.9986246244133703</v>
+        <v>1.029270245590774</v>
       </c>
       <c r="S23">
-        <v>0.9986246244133703</v>
+        <v>1.029270245590774</v>
       </c>
       <c r="T23">
-        <v>1.000075215143166</v>
+        <v>1.014982160098004</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000325035774882</v>
+        <v>0.9648906036752073</v>
       </c>
       <c r="D24">
-        <v>1.002150129736611</v>
+        <v>0.9711561553077607</v>
       </c>
       <c r="E24">
-        <v>1.000107663060356</v>
+        <v>0.8961192061560384</v>
       </c>
       <c r="F24">
-        <v>0.9990153688385858</v>
+        <v>1.078493950850909</v>
       </c>
       <c r="G24">
-        <v>1.002150129736611</v>
+        <v>0.9711561553077607</v>
       </c>
       <c r="H24">
-        <v>0.9988911172967686</v>
+        <v>1.137269315054173</v>
       </c>
       <c r="I24">
-        <v>0.9995739654508983</v>
+        <v>0.9623121884336756</v>
       </c>
       <c r="J24">
-        <v>0.9988911172967686</v>
+        <v>1.137269315054173</v>
       </c>
       <c r="K24">
-        <v>1.002150129736611</v>
+        <v>0.9711561553077607</v>
       </c>
       <c r="L24">
-        <v>0.9995739654508983</v>
+        <v>0.9623121884336756</v>
       </c>
       <c r="M24">
-        <v>0.9992325413738334</v>
+        <v>1.049790751743924</v>
       </c>
       <c r="N24">
-        <v>0.9992325413738334</v>
+        <v>1.049790751743924</v>
       </c>
       <c r="O24">
-        <v>0.999160150528751</v>
+        <v>1.059358484779586</v>
       </c>
       <c r="P24">
-        <v>1.000205070828093</v>
+        <v>1.023579219598536</v>
       </c>
       <c r="Q24">
-        <v>1.000205070828093</v>
+        <v>1.023579219598536</v>
       </c>
       <c r="R24">
-        <v>1.000691335555222</v>
+        <v>1.010473453525843</v>
       </c>
       <c r="S24">
-        <v>1.000691335555222</v>
+        <v>1.010473453525843</v>
       </c>
       <c r="T24">
-        <v>1.000010546693017</v>
+        <v>1.001706903246294</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.101757282267054</v>
+        <v>1.001359776493563</v>
       </c>
       <c r="D25">
-        <v>1.060157332243438</v>
+        <v>0.9985390216161666</v>
       </c>
       <c r="E25">
-        <v>1.328982962628722</v>
+        <v>1.006068376289979</v>
       </c>
       <c r="F25">
-        <v>0.7707925705384401</v>
+        <v>0.9970636620381401</v>
       </c>
       <c r="G25">
-        <v>1.060157332243438</v>
+        <v>0.9985390216161666</v>
       </c>
       <c r="H25">
-        <v>0.6087752629102897</v>
+        <v>0.9948998809505066</v>
       </c>
       <c r="I25">
-        <v>1.118876613314101</v>
+        <v>1.002520573470641</v>
       </c>
       <c r="J25">
-        <v>0.6087752629102897</v>
+        <v>0.9948998809505066</v>
       </c>
       <c r="K25">
-        <v>1.060157332243438</v>
+        <v>0.9985390216161666</v>
       </c>
       <c r="L25">
-        <v>1.118876613314101</v>
+        <v>1.002520573470641</v>
       </c>
       <c r="M25">
-        <v>0.8638259381121953</v>
+        <v>0.9987102272105739</v>
       </c>
       <c r="N25">
-        <v>0.8638259381121953</v>
+        <v>0.9987102272105739</v>
       </c>
       <c r="O25">
-        <v>0.8328148155876103</v>
+        <v>0.998161372153096</v>
       </c>
       <c r="P25">
-        <v>0.9292697361559427</v>
+        <v>0.9986531586791049</v>
       </c>
       <c r="Q25">
-        <v>0.9292697361559429</v>
+        <v>0.9986531586791049</v>
       </c>
       <c r="R25">
-        <v>0.9619916351778166</v>
+        <v>0.9986246244133703</v>
       </c>
       <c r="S25">
-        <v>0.9619916351778166</v>
+        <v>0.9986246244133703</v>
       </c>
       <c r="T25">
-        <v>0.9982236706503408</v>
+        <v>1.000075215143166</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.029501459234324</v>
+        <v>1.000325035774882</v>
       </c>
       <c r="D26">
-        <v>1.046662981219421</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="E26">
-        <v>1.054272234625513</v>
+        <v>1.000107663060356</v>
       </c>
       <c r="F26">
-        <v>0.9374779605329293</v>
+        <v>0.9990153688385858</v>
       </c>
       <c r="G26">
-        <v>1.046662981219421</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="H26">
-        <v>0.8751624151924474</v>
+        <v>0.9988911172967686</v>
       </c>
       <c r="I26">
-        <v>1.022439094449975</v>
+        <v>0.9995739654508983</v>
       </c>
       <c r="J26">
-        <v>0.8751624151924474</v>
+        <v>0.9988911172967686</v>
       </c>
       <c r="K26">
-        <v>1.046662981219421</v>
+        <v>1.002150129736611</v>
       </c>
       <c r="L26">
-        <v>1.022439094449975</v>
+        <v>0.9995739654508983</v>
       </c>
       <c r="M26">
-        <v>0.9488007548212114</v>
+        <v>0.9992325413738334</v>
       </c>
       <c r="N26">
-        <v>0.9488007548212114</v>
+        <v>0.9992325413738334</v>
       </c>
       <c r="O26">
-        <v>0.9450264900584507</v>
+        <v>0.999160150528751</v>
       </c>
       <c r="P26">
-        <v>0.9814214969539479</v>
+        <v>1.000205070828093</v>
       </c>
       <c r="Q26">
-        <v>0.981421496953948</v>
+        <v>1.000205070828093</v>
       </c>
       <c r="R26">
-        <v>0.9977318680203162</v>
+        <v>1.000691335555222</v>
       </c>
       <c r="S26">
-        <v>0.9977318680203162</v>
+        <v>1.000691335555222</v>
       </c>
       <c r="T26">
-        <v>0.9942526908757684</v>
+        <v>1.000010546693017</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.002920020244579</v>
+        <v>1.101757282267054</v>
       </c>
       <c r="D27">
-        <v>1.001232622467071</v>
+        <v>1.060157332243438</v>
       </c>
       <c r="E27">
-        <v>1.009769760072786</v>
+        <v>1.328982962628722</v>
       </c>
       <c r="F27">
-        <v>0.9934602645621569</v>
+        <v>0.7707925705384401</v>
       </c>
       <c r="G27">
-        <v>1.001232622467071</v>
+        <v>1.060157332243438</v>
       </c>
       <c r="H27">
-        <v>0.988783609356974</v>
+        <v>0.6087752629102897</v>
       </c>
       <c r="I27">
-        <v>1.003614436883144</v>
+        <v>1.118876613314101</v>
       </c>
       <c r="J27">
-        <v>0.988783609356974</v>
+        <v>0.6087752629102897</v>
       </c>
       <c r="K27">
-        <v>1.001232622467071</v>
+        <v>1.060157332243438</v>
       </c>
       <c r="L27">
-        <v>1.003614436883144</v>
+        <v>1.118876613314101</v>
       </c>
       <c r="M27">
-        <v>0.996199023120059</v>
+        <v>0.8638259381121953</v>
       </c>
       <c r="N27">
-        <v>0.996199023120059</v>
+        <v>0.8638259381121953</v>
       </c>
       <c r="O27">
-        <v>0.9952861036007583</v>
+        <v>0.8328148155876103</v>
       </c>
       <c r="P27">
-        <v>0.997876889569063</v>
+        <v>0.9292697361559427</v>
       </c>
       <c r="Q27">
-        <v>0.997876889569063</v>
+        <v>0.9292697361559429</v>
       </c>
       <c r="R27">
-        <v>0.9987158227935649</v>
+        <v>0.9619916351778166</v>
       </c>
       <c r="S27">
-        <v>0.9987158227935649</v>
+        <v>0.9619916351778166</v>
       </c>
       <c r="T27">
-        <v>0.9999634522644517</v>
+        <v>0.9982236706503408</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.996445806957625</v>
+        <v>1.029501459234324</v>
       </c>
       <c r="D28">
-        <v>0.9890519015804752</v>
+        <v>1.046662981219421</v>
       </c>
       <c r="E28">
-        <v>1.000489820470242</v>
+        <v>1.054272234625513</v>
       </c>
       <c r="F28">
-        <v>1.006948309567444</v>
+        <v>0.9374779605329293</v>
       </c>
       <c r="G28">
-        <v>0.9890519015804752</v>
+        <v>1.046662981219421</v>
       </c>
       <c r="H28">
-        <v>1.016888167018523</v>
+        <v>0.8751624151924474</v>
       </c>
       <c r="I28">
-        <v>0.9994885432086125</v>
+        <v>1.022439094449975</v>
       </c>
       <c r="J28">
-        <v>1.016888167018523</v>
+        <v>0.8751624151924474</v>
       </c>
       <c r="K28">
-        <v>0.9890519015804752</v>
+        <v>1.046662981219421</v>
       </c>
       <c r="L28">
-        <v>0.9994885432086125</v>
+        <v>1.022439094449975</v>
       </c>
       <c r="M28">
-        <v>1.008188355113568</v>
+        <v>0.9488007548212114</v>
       </c>
       <c r="N28">
-        <v>1.008188355113568</v>
+        <v>0.9488007548212114</v>
       </c>
       <c r="O28">
-        <v>1.007775006598193</v>
+        <v>0.9450264900584507</v>
       </c>
       <c r="P28">
-        <v>1.001809537269203</v>
+        <v>0.9814214969539479</v>
       </c>
       <c r="Q28">
-        <v>1.001809537269203</v>
+        <v>0.981421496953948</v>
       </c>
       <c r="R28">
-        <v>0.9986201283470213</v>
+        <v>0.9977318680203162</v>
       </c>
       <c r="S28">
-        <v>0.9986201283470213</v>
+        <v>0.9977318680203162</v>
       </c>
       <c r="T28">
-        <v>1.001552091467153</v>
+        <v>0.9942526908757684</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.002920020244579</v>
+      </c>
+      <c r="D29">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="E29">
+        <v>1.009769760072786</v>
+      </c>
+      <c r="F29">
+        <v>0.9934602645621569</v>
+      </c>
+      <c r="G29">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="H29">
+        <v>0.988783609356974</v>
+      </c>
+      <c r="I29">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="J29">
+        <v>0.988783609356974</v>
+      </c>
+      <c r="K29">
+        <v>1.001232622467071</v>
+      </c>
+      <c r="L29">
+        <v>1.003614436883144</v>
+      </c>
+      <c r="M29">
+        <v>0.996199023120059</v>
+      </c>
+      <c r="N29">
+        <v>0.996199023120059</v>
+      </c>
+      <c r="O29">
+        <v>0.9952861036007583</v>
+      </c>
+      <c r="P29">
+        <v>0.997876889569063</v>
+      </c>
+      <c r="Q29">
+        <v>0.997876889569063</v>
+      </c>
+      <c r="R29">
+        <v>0.9987158227935649</v>
+      </c>
+      <c r="S29">
+        <v>0.9987158227935649</v>
+      </c>
+      <c r="T29">
+        <v>0.9999634522644517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.996445806957625</v>
+      </c>
+      <c r="D30">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="E30">
+        <v>1.000489820470242</v>
+      </c>
+      <c r="F30">
+        <v>1.006948309567444</v>
+      </c>
+      <c r="G30">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="H30">
+        <v>1.016888167018523</v>
+      </c>
+      <c r="I30">
+        <v>0.9994885432086125</v>
+      </c>
+      <c r="J30">
+        <v>1.016888167018523</v>
+      </c>
+      <c r="K30">
+        <v>0.9890519015804752</v>
+      </c>
+      <c r="L30">
+        <v>0.9994885432086125</v>
+      </c>
+      <c r="M30">
+        <v>1.008188355113568</v>
+      </c>
+      <c r="N30">
+        <v>1.008188355113568</v>
+      </c>
+      <c r="O30">
+        <v>1.007775006598193</v>
+      </c>
+      <c r="P30">
+        <v>1.001809537269203</v>
+      </c>
+      <c r="Q30">
+        <v>1.001809537269203</v>
+      </c>
+      <c r="R30">
+        <v>0.9986201283470213</v>
+      </c>
+      <c r="S30">
+        <v>0.9986201283470213</v>
+      </c>
+      <c r="T30">
+        <v>1.001552091467153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9857138018848111</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9731460358580927</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9807563861481579</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.029405217740803</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9731460358580927</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.062640662584481</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9908856899009137</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.062640662584481</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9731460358580927</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9908856899009137</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.026763176242697</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.026763176242697</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.027643856742066</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.008890796114496</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.008890796114496</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.999954606050395</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.999954606050395</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.00375796568621</v>
       </c>
     </row>
